--- a/ILRG_ORAM_C_limites/ILRG_ORAM_C_limites-media/ILRG_ORAM_C_limites.xlsx
+++ b/ILRG_ORAM_C_limites/ILRG_ORAM_C_limites-media/ILRG_ORAM_C_limites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Dams project\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_C_limites\ILRG_ORAM_C_limites-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D26692-D291-41FE-931E-1BE5A207F639}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC44D6A-3973-48D0-BF73-4524D07D009E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2456" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="1104">
   <si>
     <t>type</t>
   </si>
@@ -3156,9 +3156,6 @@
     <t>Os limites devem ser marcados em cor vermelha</t>
   </si>
   <si>
-    <t>&lt;h1&gt;Introduza o seu nome&lt;/h&gt;&lt;br&gt;&lt;br&gt;Nome do(a) técnico(a):</t>
-  </si>
-  <si>
     <t>ILRG_ORAM_C</t>
   </si>
   <si>
@@ -3340,6 +3337,15 @@
   </si>
   <si>
     <t>ILRG ORAM C - Limites dos povoados</t>
+  </si>
+  <si>
+    <t>deviceid</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Introduza o seu nome&lt;/h2&gt;&lt;br&gt;&lt;br&gt;Nome do(a) técnico(a):</t>
   </si>
 </sst>
 </file>
@@ -3798,7 +3804,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3916,26 +3922,29 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="238">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4512,13 +4521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4596,326 +4605,337 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:15" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B5" s="29" t="s">
         <v>1031</v>
       </c>
-      <c r="M4" s="57" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="M5" s="56" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="34" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L6" s="56" t="s">
         <v>1042</v>
       </c>
-      <c r="L5" s="57" t="s">
+    </row>
+    <row r="7" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="57" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="N7" s="56" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>1044</v>
-      </c>
-      <c r="N6" s="57" t="s">
+      <c r="B8" s="57" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="C8" s="56" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="57"/>
+    </row>
+    <row r="10" spans="1:15" s="17" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B10" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>1074</v>
+      </c>
+      <c r="L12" s="56" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J13" s="56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J14" s="56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="58"/>
-    </row>
-    <row r="9" spans="1:15" s="17" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>1040</v>
-      </c>
-      <c r="J10" s="13" t="s">
+      <c r="B15" s="57"/>
+    </row>
+    <row r="16" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>1075</v>
-      </c>
-      <c r="L11" s="57" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>1077</v>
-      </c>
-      <c r="H12" s="57" t="s">
-        <v>1033</v>
-      </c>
-      <c r="J12" s="57" t="s">
+      <c r="L16" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J17" s="56" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C13" s="57" t="s">
+      <c r="L17" s="56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J18" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="56" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B19" s="57" t="s">
         <v>1079</v>
       </c>
-      <c r="H13" s="57" t="s">
-        <v>1033</v>
-      </c>
-      <c r="J13" s="57" t="s">
+      <c r="C19" s="56" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J19" s="56" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="58"/>
-    </row>
-    <row r="15" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="13" t="s">
+      <c r="L19" s="56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J20" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>1018</v>
-      </c>
-      <c r="J16" s="57" t="s">
+      <c r="L20" s="56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B17" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D17" s="57" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J17" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J18" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>1084</v>
-      </c>
-      <c r="J19" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C21" s="36" t="s">
+      <c r="B22" s="34" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>1036</v>
       </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="G22" s="11"/>
-      <c r="J22" s="15" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="J23" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B24" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="G23" s="11"/>
-      <c r="J23" s="12"/>
-      <c r="M23" s="57" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="C24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="M24" s="56" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>1039</v>
-      </c>
-      <c r="J25" s="54" t="s">
-        <v>21</v>
-      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="11"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B27" s="31" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4962,147 +4982,147 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C3" s="60" t="s">
         <v>1050</v>
       </c>
-      <c r="C3" s="61" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="C5" s="60" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="B6" s="59" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="B7" s="59" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="B8" s="59" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="B9" s="59" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="B10" s="59" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="B11" s="59" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="B12" s="59" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="60" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="B13" s="59" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="60" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="B14" s="59" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="60" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C14" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="60" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="58" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5273,7 +5293,7 @@
         <v>44</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7692,8 +7712,8 @@
       <c r="C148" s="37"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="62" t="s">
-        <v>1086</v>
+      <c r="A149" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B149" s="44" t="s">
         <v>333</v>
@@ -7706,8 +7726,8 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="62" t="s">
-        <v>1086</v>
+      <c r="A150" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B150" s="44" t="s">
         <v>335</v>
@@ -7720,8 +7740,8 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="62" t="s">
-        <v>1086</v>
+      <c r="A151" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B151" s="44" t="s">
         <v>337</v>
@@ -7734,8 +7754,8 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="62" t="s">
-        <v>1086</v>
+      <c r="A152" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B152" s="44" t="s">
         <v>339</v>
@@ -7748,8 +7768,8 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="62" t="s">
-        <v>1086</v>
+      <c r="A153" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B153" s="46" t="s">
         <v>341</v>
@@ -7762,8 +7782,8 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="62" t="s">
-        <v>1086</v>
+      <c r="A154" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B154" s="44" t="s">
         <v>343</v>
@@ -7776,8 +7796,8 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="62" t="s">
-        <v>1086</v>
+      <c r="A155" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B155" s="44" t="s">
         <v>345</v>
@@ -7790,8 +7810,8 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="62" t="s">
-        <v>1086</v>
+      <c r="A156" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B156" s="44" t="s">
         <v>347</v>
@@ -7804,8 +7824,8 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="62" t="s">
-        <v>1086</v>
+      <c r="A157" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B157" s="44" t="s">
         <v>349</v>
@@ -7818,8 +7838,8 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="62" t="s">
-        <v>1086</v>
+      <c r="A158" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B158" s="44" t="s">
         <v>351</v>
@@ -7832,8 +7852,8 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="62" t="s">
-        <v>1086</v>
+      <c r="A159" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B159" s="44" t="s">
         <v>352</v>
@@ -7846,8 +7866,8 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="62" t="s">
-        <v>1086</v>
+      <c r="A160" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B160" s="44" t="s">
         <v>354</v>
@@ -7860,8 +7880,8 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="62" t="s">
-        <v>1086</v>
+      <c r="A161" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B161" s="44" t="s">
         <v>356</v>
@@ -7874,8 +7894,8 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="62" t="s">
-        <v>1086</v>
+      <c r="A162" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B162" s="44" t="s">
         <v>357</v>
@@ -7888,8 +7908,8 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="62" t="s">
-        <v>1086</v>
+      <c r="A163" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B163" s="44" t="s">
         <v>359</v>
@@ -7902,8 +7922,8 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="62" t="s">
-        <v>1086</v>
+      <c r="A164" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B164" s="44" t="s">
         <v>360</v>
@@ -7916,8 +7936,8 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="62" t="s">
-        <v>1086</v>
+      <c r="A165" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B165" s="44" t="s">
         <v>362</v>
@@ -7930,8 +7950,8 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="62" t="s">
-        <v>1086</v>
+      <c r="A166" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B166" s="44" t="s">
         <v>364</v>
@@ -7944,8 +7964,8 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="62" t="s">
-        <v>1086</v>
+      <c r="A167" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B167" s="44" t="s">
         <v>365</v>
@@ -7958,8 +7978,8 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="62" t="s">
-        <v>1086</v>
+      <c r="A168" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B168" s="44" t="s">
         <v>367</v>
@@ -7972,8 +7992,8 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="62" t="s">
-        <v>1086</v>
+      <c r="A169" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B169" s="44" t="s">
         <v>368</v>
@@ -7986,8 +8006,8 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="62" t="s">
-        <v>1086</v>
+      <c r="A170" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B170" s="44" t="s">
         <v>370</v>
@@ -8000,8 +8020,8 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="62" t="s">
-        <v>1086</v>
+      <c r="A171" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B171" s="44" t="s">
         <v>371</v>
@@ -8014,8 +8034,8 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="62" t="s">
-        <v>1086</v>
+      <c r="A172" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B172" s="44" t="s">
         <v>372</v>
@@ -8028,8 +8048,8 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="62" t="s">
-        <v>1086</v>
+      <c r="A173" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B173" s="44" t="s">
         <v>373</v>
@@ -8042,8 +8062,8 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="62" t="s">
-        <v>1086</v>
+      <c r="A174" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B174" s="44" t="s">
         <v>375</v>
@@ -8056,8 +8076,8 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="62" t="s">
-        <v>1086</v>
+      <c r="A175" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B175" s="44" t="s">
         <v>376</v>
@@ -8070,8 +8090,8 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="62" t="s">
-        <v>1086</v>
+      <c r="A176" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B176" s="44" t="s">
         <v>378</v>
@@ -8084,8 +8104,8 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="62" t="s">
-        <v>1086</v>
+      <c r="A177" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B177" s="44" t="s">
         <v>379</v>
@@ -8098,8 +8118,8 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="62" t="s">
-        <v>1086</v>
+      <c r="A178" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B178" s="44" t="s">
         <v>381</v>
@@ -8112,8 +8132,8 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="62" t="s">
-        <v>1086</v>
+      <c r="A179" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B179" s="44" t="s">
         <v>383</v>
@@ -8126,8 +8146,8 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="62" t="s">
-        <v>1086</v>
+      <c r="A180" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B180" s="46" t="s">
         <v>385</v>
@@ -8140,8 +8160,8 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="62" t="s">
-        <v>1086</v>
+      <c r="A181" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B181" s="44" t="s">
         <v>386</v>
@@ -8154,8 +8174,8 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="62" t="s">
-        <v>1086</v>
+      <c r="A182" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B182" s="44" t="s">
         <v>388</v>
@@ -8168,8 +8188,8 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="62" t="s">
-        <v>1086</v>
+      <c r="A183" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B183" s="44" t="s">
         <v>389</v>
@@ -8182,8 +8202,8 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="62" t="s">
-        <v>1086</v>
+      <c r="A184" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B184" s="44" t="s">
         <v>391</v>
@@ -8196,8 +8216,8 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="62" t="s">
-        <v>1086</v>
+      <c r="A185" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B185" s="44" t="s">
         <v>393</v>
@@ -8210,8 +8230,8 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="62" t="s">
-        <v>1086</v>
+      <c r="A186" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B186" s="44" t="s">
         <v>395</v>
@@ -8224,8 +8244,8 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="62" t="s">
-        <v>1086</v>
+      <c r="A187" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B187" s="44" t="s">
         <v>396</v>
@@ -8238,8 +8258,8 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="62" t="s">
-        <v>1086</v>
+      <c r="A188" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B188" s="44" t="s">
         <v>398</v>
@@ -8252,8 +8272,8 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="62" t="s">
-        <v>1086</v>
+      <c r="A189" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B189" s="44" t="s">
         <v>400</v>
@@ -8266,8 +8286,8 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="62" t="s">
-        <v>1086</v>
+      <c r="A190" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B190" s="44" t="s">
         <v>401</v>
@@ -8280,8 +8300,8 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="62" t="s">
-        <v>1086</v>
+      <c r="A191" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B191" s="44" t="s">
         <v>403</v>
@@ -8294,8 +8314,8 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="62" t="s">
-        <v>1086</v>
+      <c r="A192" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B192" s="44" t="s">
         <v>405</v>
@@ -8308,8 +8328,8 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="62" t="s">
-        <v>1086</v>
+      <c r="A193" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B193" s="44" t="s">
         <v>407</v>
@@ -8322,8 +8342,8 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="62" t="s">
-        <v>1086</v>
+      <c r="A194" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B194" s="44" t="s">
         <v>408</v>
@@ -8336,8 +8356,8 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="62" t="s">
-        <v>1086</v>
+      <c r="A195" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B195" s="44" t="s">
         <v>410</v>
@@ -8350,8 +8370,8 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="62" t="s">
-        <v>1086</v>
+      <c r="A196" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B196" s="44" t="s">
         <v>412</v>
@@ -8364,8 +8384,8 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="62" t="s">
-        <v>1086</v>
+      <c r="A197" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B197" s="44" t="s">
         <v>414</v>
@@ -8378,8 +8398,8 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="62" t="s">
-        <v>1086</v>
+      <c r="A198" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B198" s="44" t="s">
         <v>416</v>
@@ -8392,8 +8412,8 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="62" t="s">
-        <v>1086</v>
+      <c r="A199" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B199" s="44" t="s">
         <v>418</v>
@@ -8406,8 +8426,8 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="62" t="s">
-        <v>1086</v>
+      <c r="A200" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B200" s="44" t="s">
         <v>419</v>
@@ -8420,8 +8440,8 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="62" t="s">
-        <v>1086</v>
+      <c r="A201" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B201" s="44" t="s">
         <v>421</v>
@@ -8434,8 +8454,8 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="62" t="s">
-        <v>1086</v>
+      <c r="A202" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B202" s="44" t="s">
         <v>422</v>
@@ -8448,8 +8468,8 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="62" t="s">
-        <v>1086</v>
+      <c r="A203" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B203" s="44" t="s">
         <v>424</v>
@@ -8462,8 +8482,8 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="62" t="s">
-        <v>1086</v>
+      <c r="A204" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B204" s="44" t="s">
         <v>426</v>
@@ -8476,8 +8496,8 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="62" t="s">
-        <v>1086</v>
+      <c r="A205" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B205" s="44" t="s">
         <v>428</v>
@@ -8490,8 +8510,8 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="62" t="s">
-        <v>1086</v>
+      <c r="A206" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B206" s="44" t="s">
         <v>429</v>
@@ -8504,8 +8524,8 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="62" t="s">
-        <v>1086</v>
+      <c r="A207" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B207" s="44" t="s">
         <v>431</v>
@@ -8518,8 +8538,8 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="62" t="s">
-        <v>1086</v>
+      <c r="A208" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B208" s="44" t="s">
         <v>432</v>
@@ -8532,8 +8552,8 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="62" t="s">
-        <v>1086</v>
+      <c r="A209" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B209" s="44" t="s">
         <v>434</v>
@@ -8546,8 +8566,8 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="62" t="s">
-        <v>1086</v>
+      <c r="A210" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B210" s="44" t="s">
         <v>436</v>
@@ -8560,8 +8580,8 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="62" t="s">
-        <v>1086</v>
+      <c r="A211" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B211" s="44" t="s">
         <v>438</v>
@@ -8574,8 +8594,8 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="62" t="s">
-        <v>1086</v>
+      <c r="A212" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B212" s="44" t="s">
         <v>440</v>
@@ -8588,8 +8608,8 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="62" t="s">
-        <v>1086</v>
+      <c r="A213" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B213" s="44" t="s">
         <v>442</v>
@@ -8602,8 +8622,8 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="62" t="s">
-        <v>1086</v>
+      <c r="A214" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B214" s="44" t="s">
         <v>444</v>
@@ -8616,8 +8636,8 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="62" t="s">
-        <v>1086</v>
+      <c r="A215" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B215" s="44" t="s">
         <v>446</v>
@@ -8630,8 +8650,8 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="62" t="s">
-        <v>1086</v>
+      <c r="A216" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B216" s="44" t="s">
         <v>448</v>
@@ -8644,8 +8664,8 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="62" t="s">
-        <v>1086</v>
+      <c r="A217" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B217" s="44" t="s">
         <v>449</v>
@@ -8658,8 +8678,8 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="62" t="s">
-        <v>1086</v>
+      <c r="A218" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B218" s="44" t="s">
         <v>451</v>
@@ -8672,8 +8692,8 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="62" t="s">
-        <v>1086</v>
+      <c r="A219" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B219" s="44" t="s">
         <v>453</v>
@@ -8686,8 +8706,8 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="62" t="s">
-        <v>1086</v>
+      <c r="A220" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B220" s="44" t="s">
         <v>455</v>
@@ -8700,8 +8720,8 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="62" t="s">
-        <v>1086</v>
+      <c r="A221" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B221" s="44" t="s">
         <v>457</v>
@@ -8714,8 +8734,8 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="62" t="s">
-        <v>1086</v>
+      <c r="A222" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B222" s="44" t="s">
         <v>458</v>
@@ -8728,8 +8748,8 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="62" t="s">
-        <v>1086</v>
+      <c r="A223" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B223" s="44" t="s">
         <v>460</v>
@@ -8742,8 +8762,8 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="62" t="s">
-        <v>1086</v>
+      <c r="A224" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B224" s="44" t="s">
         <v>462</v>
@@ -8756,8 +8776,8 @@
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="62" t="s">
-        <v>1086</v>
+      <c r="A225" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B225" s="44" t="s">
         <v>463</v>
@@ -8770,8 +8790,8 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="62" t="s">
-        <v>1086</v>
+      <c r="A226" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B226" s="44" t="s">
         <v>465</v>
@@ -8784,8 +8804,8 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="62" t="s">
-        <v>1086</v>
+      <c r="A227" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B227" s="46" t="s">
         <v>467</v>
@@ -8798,8 +8818,8 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="62" t="s">
-        <v>1086</v>
+      <c r="A228" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B228" s="46" t="s">
         <v>469</v>
@@ -8812,8 +8832,8 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="62" t="s">
-        <v>1086</v>
+      <c r="A229" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B229" s="44" t="s">
         <v>471</v>
@@ -8826,8 +8846,8 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="62" t="s">
-        <v>1086</v>
+      <c r="A230" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B230" s="44" t="s">
         <v>473</v>
@@ -8840,8 +8860,8 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="62" t="s">
-        <v>1086</v>
+      <c r="A231" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B231" s="44" t="s">
         <v>474</v>
@@ -8854,8 +8874,8 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="62" t="s">
-        <v>1086</v>
+      <c r="A232" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B232" s="44" t="s">
         <v>476</v>
@@ -8868,8 +8888,8 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="62" t="s">
-        <v>1086</v>
+      <c r="A233" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B233" s="44" t="s">
         <v>477</v>
@@ -8882,8 +8902,8 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="62" t="s">
-        <v>1086</v>
+      <c r="A234" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B234" s="44" t="s">
         <v>479</v>
@@ -8896,8 +8916,8 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="62" t="s">
-        <v>1086</v>
+      <c r="A235" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B235" s="44" t="s">
         <v>481</v>
@@ -8910,8 +8930,8 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="62" t="s">
-        <v>1086</v>
+      <c r="A236" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B236" s="44" t="s">
         <v>483</v>
@@ -8924,8 +8944,8 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="62" t="s">
-        <v>1086</v>
+      <c r="A237" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B237" s="44" t="s">
         <v>485</v>
@@ -8938,8 +8958,8 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="62" t="s">
-        <v>1086</v>
+      <c r="A238" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B238" s="44" t="s">
         <v>487</v>
@@ -8952,8 +8972,8 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="62" t="s">
-        <v>1086</v>
+      <c r="A239" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B239" s="44" t="s">
         <v>488</v>
@@ -8966,8 +8986,8 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="62" t="s">
-        <v>1086</v>
+      <c r="A240" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B240" s="44" t="s">
         <v>490</v>
@@ -8980,8 +9000,8 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="62" t="s">
-        <v>1086</v>
+      <c r="A241" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B241" s="44" t="s">
         <v>492</v>
@@ -8994,8 +9014,8 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="62" t="s">
-        <v>1086</v>
+      <c r="A242" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B242" s="44" t="s">
         <v>494</v>
@@ -9008,8 +9028,8 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="62" t="s">
-        <v>1086</v>
+      <c r="A243" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B243" s="44" t="s">
         <v>496</v>
@@ -9022,8 +9042,8 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="62" t="s">
-        <v>1086</v>
+      <c r="A244" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B244" s="44" t="s">
         <v>498</v>
@@ -9036,8 +9056,8 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="62" t="s">
-        <v>1086</v>
+      <c r="A245" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B245" s="44" t="s">
         <v>499</v>
@@ -9050,8 +9070,8 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="62" t="s">
-        <v>1086</v>
+      <c r="A246" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B246" s="44" t="s">
         <v>501</v>
@@ -9064,8 +9084,8 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="62" t="s">
-        <v>1086</v>
+      <c r="A247" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B247" s="44" t="s">
         <v>503</v>
@@ -9078,8 +9098,8 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="62" t="s">
-        <v>1086</v>
+      <c r="A248" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B248" s="44" t="s">
         <v>505</v>
@@ -9092,8 +9112,8 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="62" t="s">
-        <v>1086</v>
+      <c r="A249" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B249" s="44" t="s">
         <v>506</v>
@@ -9106,8 +9126,8 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="62" t="s">
-        <v>1086</v>
+      <c r="A250" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B250" s="44" t="s">
         <v>508</v>
@@ -9120,8 +9140,8 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="62" t="s">
-        <v>1086</v>
+      <c r="A251" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B251" s="44" t="s">
         <v>509</v>
@@ -9134,8 +9154,8 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="62" t="s">
-        <v>1086</v>
+      <c r="A252" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B252" s="44" t="s">
         <v>511</v>
@@ -9148,8 +9168,8 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="62" t="s">
-        <v>1086</v>
+      <c r="A253" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B253" s="44" t="s">
         <v>513</v>
@@ -9162,8 +9182,8 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="62" t="s">
-        <v>1086</v>
+      <c r="A254" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B254" s="44" t="s">
         <v>514</v>
@@ -9176,8 +9196,8 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="62" t="s">
-        <v>1086</v>
+      <c r="A255" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B255" s="44" t="s">
         <v>516</v>
@@ -9190,8 +9210,8 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="62" t="s">
-        <v>1086</v>
+      <c r="A256" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B256" s="44" t="s">
         <v>518</v>
@@ -9204,8 +9224,8 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="62" t="s">
-        <v>1086</v>
+      <c r="A257" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B257" s="44" t="s">
         <v>520</v>
@@ -9218,8 +9238,8 @@
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="62" t="s">
-        <v>1086</v>
+      <c r="A258" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B258" s="44" t="s">
         <v>521</v>
@@ -9232,8 +9252,8 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="62" t="s">
-        <v>1086</v>
+      <c r="A259" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B259" s="44" t="s">
         <v>523</v>
@@ -9246,8 +9266,8 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="62" t="s">
-        <v>1086</v>
+      <c r="A260" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B260" s="44" t="s">
         <v>525</v>
@@ -9260,8 +9280,8 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="62" t="s">
-        <v>1086</v>
+      <c r="A261" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B261" s="44" t="s">
         <v>527</v>
@@ -9274,8 +9294,8 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="62" t="s">
-        <v>1086</v>
+      <c r="A262" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B262" s="44" t="s">
         <v>528</v>
@@ -9288,8 +9308,8 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="62" t="s">
-        <v>1086</v>
+      <c r="A263" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B263" s="44" t="s">
         <v>530</v>
@@ -9302,8 +9322,8 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="62" t="s">
-        <v>1086</v>
+      <c r="A264" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B264" s="44" t="s">
         <v>531</v>
@@ -9316,8 +9336,8 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="62" t="s">
-        <v>1086</v>
+      <c r="A265" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B265" s="44" t="s">
         <v>533</v>
@@ -9330,8 +9350,8 @@
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="62" t="s">
-        <v>1086</v>
+      <c r="A266" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B266" s="44" t="s">
         <v>535</v>
@@ -9344,8 +9364,8 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="62" t="s">
-        <v>1086</v>
+      <c r="A267" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B267" s="44" t="s">
         <v>537</v>
@@ -9358,8 +9378,8 @@
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="62" t="s">
-        <v>1086</v>
+      <c r="A268" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B268" s="44" t="s">
         <v>539</v>
@@ -9372,8 +9392,8 @@
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="62" t="s">
-        <v>1086</v>
+      <c r="A269" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B269" s="44" t="s">
         <v>541</v>
@@ -9386,8 +9406,8 @@
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="62" t="s">
-        <v>1086</v>
+      <c r="A270" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B270" s="44" t="s">
         <v>543</v>
@@ -9400,8 +9420,8 @@
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="62" t="s">
-        <v>1086</v>
+      <c r="A271" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B271" s="44" t="s">
         <v>545</v>
@@ -9414,8 +9434,8 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="62" t="s">
-        <v>1086</v>
+      <c r="A272" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B272" s="44" t="s">
         <v>547</v>
@@ -9428,8 +9448,8 @@
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="62" t="s">
-        <v>1086</v>
+      <c r="A273" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B273" s="44" t="s">
         <v>549</v>
@@ -9442,8 +9462,8 @@
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="62" t="s">
-        <v>1086</v>
+      <c r="A274" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B274" s="44" t="s">
         <v>551</v>
@@ -9456,8 +9476,8 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="62" t="s">
-        <v>1086</v>
+      <c r="A275" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B275" s="44" t="s">
         <v>553</v>
@@ -9470,8 +9490,8 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="62" t="s">
-        <v>1086</v>
+      <c r="A276" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B276" s="44" t="s">
         <v>555</v>
@@ -9484,8 +9504,8 @@
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="62" t="s">
-        <v>1086</v>
+      <c r="A277" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B277" s="44" t="s">
         <v>557</v>
@@ -9498,8 +9518,8 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="62" t="s">
-        <v>1086</v>
+      <c r="A278" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B278" s="44" t="s">
         <v>559</v>
@@ -9512,8 +9532,8 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="62" t="s">
-        <v>1086</v>
+      <c r="A279" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B279" s="44" t="s">
         <v>561</v>
@@ -9526,8 +9546,8 @@
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="62" t="s">
-        <v>1086</v>
+      <c r="A280" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B280" s="44" t="s">
         <v>562</v>
@@ -9540,8 +9560,8 @@
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="62" t="s">
-        <v>1086</v>
+      <c r="A281" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B281" s="44" t="s">
         <v>564</v>
@@ -9554,8 +9574,8 @@
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="62" t="s">
-        <v>1086</v>
+      <c r="A282" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B282" s="44" t="s">
         <v>566</v>
@@ -9568,8 +9588,8 @@
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="62" t="s">
-        <v>1086</v>
+      <c r="A283" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B283" s="44" t="s">
         <v>567</v>
@@ -9582,8 +9602,8 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="62" t="s">
-        <v>1086</v>
+      <c r="A284" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B284" s="44" t="s">
         <v>569</v>
@@ -9596,8 +9616,8 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="62" t="s">
-        <v>1086</v>
+      <c r="A285" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B285" s="44" t="s">
         <v>571</v>
@@ -9610,8 +9630,8 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="62" t="s">
-        <v>1086</v>
+      <c r="A286" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B286" s="44" t="s">
         <v>572</v>
@@ -9624,8 +9644,8 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="62" t="s">
-        <v>1086</v>
+      <c r="A287" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B287" s="44" t="s">
         <v>574</v>
@@ -9638,8 +9658,8 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="62" t="s">
-        <v>1086</v>
+      <c r="A288" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B288" s="44" t="s">
         <v>576</v>
@@ -9652,8 +9672,8 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="62" t="s">
-        <v>1086</v>
+      <c r="A289" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B289" s="44" t="s">
         <v>577</v>
@@ -9666,8 +9686,8 @@
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="62" t="s">
-        <v>1086</v>
+      <c r="A290" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B290" s="44" t="s">
         <v>579</v>
@@ -9680,8 +9700,8 @@
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="62" t="s">
-        <v>1086</v>
+      <c r="A291" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B291" s="44" t="s">
         <v>581</v>
@@ -9694,8 +9714,8 @@
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="62" t="s">
-        <v>1086</v>
+      <c r="A292" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B292" s="44" t="s">
         <v>582</v>
@@ -9708,8 +9728,8 @@
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="62" t="s">
-        <v>1086</v>
+      <c r="A293" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B293" s="44" t="s">
         <v>584</v>
@@ -9722,8 +9742,8 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="62" t="s">
-        <v>1086</v>
+      <c r="A294" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B294" s="44" t="s">
         <v>585</v>
@@ -9736,8 +9756,8 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="62" t="s">
-        <v>1086</v>
+      <c r="A295" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B295" s="44" t="s">
         <v>587</v>
@@ -9750,8 +9770,8 @@
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="62" t="s">
-        <v>1086</v>
+      <c r="A296" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B296" s="44" t="s">
         <v>589</v>
@@ -9764,8 +9784,8 @@
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="62" t="s">
-        <v>1086</v>
+      <c r="A297" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B297" s="44" t="s">
         <v>591</v>
@@ -9778,8 +9798,8 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="62" t="s">
-        <v>1086</v>
+      <c r="A298" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B298" s="44" t="s">
         <v>593</v>
@@ -9792,8 +9812,8 @@
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="62" t="s">
-        <v>1086</v>
+      <c r="A299" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B299" s="44" t="s">
         <v>595</v>
@@ -9806,8 +9826,8 @@
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="62" t="s">
-        <v>1086</v>
+      <c r="A300" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B300" s="44" t="s">
         <v>597</v>
@@ -9820,8 +9840,8 @@
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="62" t="s">
-        <v>1086</v>
+      <c r="A301" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B301" s="44" t="s">
         <v>598</v>
@@ -9834,8 +9854,8 @@
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="62" t="s">
-        <v>1086</v>
+      <c r="A302" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B302" s="44" t="s">
         <v>600</v>
@@ -9848,8 +9868,8 @@
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="62" t="s">
-        <v>1086</v>
+      <c r="A303" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B303" s="44" t="s">
         <v>602</v>
@@ -9862,8 +9882,8 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="62" t="s">
-        <v>1086</v>
+      <c r="A304" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B304" s="44" t="s">
         <v>603</v>
@@ -9876,8 +9896,8 @@
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="62" t="s">
-        <v>1086</v>
+      <c r="A305" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B305" s="44" t="s">
         <v>605</v>
@@ -9890,8 +9910,8 @@
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="62" t="s">
-        <v>1086</v>
+      <c r="A306" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B306" s="44" t="s">
         <v>607</v>
@@ -9904,8 +9924,8 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="62" t="s">
-        <v>1086</v>
+      <c r="A307" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B307" s="44" t="s">
         <v>609</v>
@@ -9918,8 +9938,8 @@
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="62" t="s">
-        <v>1086</v>
+      <c r="A308" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B308" s="44" t="s">
         <v>611</v>
@@ -9932,8 +9952,8 @@
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="62" t="s">
-        <v>1086</v>
+      <c r="A309" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B309" s="44" t="s">
         <v>612</v>
@@ -9946,8 +9966,8 @@
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="62" t="s">
-        <v>1086</v>
+      <c r="A310" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B310" s="44" t="s">
         <v>614</v>
@@ -9960,8 +9980,8 @@
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="62" t="s">
-        <v>1086</v>
+      <c r="A311" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B311" s="44" t="s">
         <v>616</v>
@@ -9974,8 +9994,8 @@
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="62" t="s">
-        <v>1086</v>
+      <c r="A312" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B312" s="44" t="s">
         <v>618</v>
@@ -9988,8 +10008,8 @@
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="62" t="s">
-        <v>1086</v>
+      <c r="A313" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B313" s="44" t="s">
         <v>620</v>
@@ -10002,8 +10022,8 @@
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="62" t="s">
-        <v>1086</v>
+      <c r="A314" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B314" s="44" t="s">
         <v>622</v>
@@ -10016,8 +10036,8 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="62" t="s">
-        <v>1086</v>
+      <c r="A315" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B315" s="44" t="s">
         <v>624</v>
@@ -10030,8 +10050,8 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="62" t="s">
-        <v>1086</v>
+      <c r="A316" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B316" s="44" t="s">
         <v>626</v>
@@ -10044,8 +10064,8 @@
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="62" t="s">
-        <v>1086</v>
+      <c r="A317" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B317" s="44" t="s">
         <v>628</v>
@@ -10058,8 +10078,8 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="62" t="s">
-        <v>1086</v>
+      <c r="A318" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B318" s="44" t="s">
         <v>629</v>
@@ -10072,8 +10092,8 @@
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="62" t="s">
-        <v>1086</v>
+      <c r="A319" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B319" s="44" t="s">
         <v>631</v>
@@ -10086,8 +10106,8 @@
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="62" t="s">
-        <v>1086</v>
+      <c r="A320" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B320" s="44" t="s">
         <v>633</v>
@@ -10100,8 +10120,8 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="62" t="s">
-        <v>1086</v>
+      <c r="A321" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B321" s="44" t="s">
         <v>635</v>
@@ -10114,8 +10134,8 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="62" t="s">
-        <v>1086</v>
+      <c r="A322" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B322" s="44" t="s">
         <v>637</v>
@@ -10128,8 +10148,8 @@
       </c>
     </row>
     <row r="323" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="62" t="s">
-        <v>1086</v>
+      <c r="A323" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B323" s="47" t="s">
         <v>639</v>
@@ -10144,8 +10164,8 @@
       <c r="F323" s="48"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324" s="62" t="s">
-        <v>1086</v>
+      <c r="A324" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B324" s="44" t="s">
         <v>641</v>
@@ -10158,8 +10178,8 @@
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325" s="62" t="s">
-        <v>1086</v>
+      <c r="A325" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B325" s="44" t="s">
         <v>643</v>
@@ -10172,8 +10192,8 @@
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326" s="62" t="s">
-        <v>1086</v>
+      <c r="A326" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B326" s="44" t="s">
         <v>644</v>
@@ -10186,8 +10206,8 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327" s="62" t="s">
-        <v>1086</v>
+      <c r="A327" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B327" s="44" t="s">
         <v>646</v>
@@ -10200,8 +10220,8 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328" s="62" t="s">
-        <v>1086</v>
+      <c r="A328" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B328" s="44" t="s">
         <v>648</v>
@@ -10214,8 +10234,8 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329" s="62" t="s">
-        <v>1086</v>
+      <c r="A329" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B329" s="44" t="s">
         <v>650</v>
@@ -10228,8 +10248,8 @@
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330" s="62" t="s">
-        <v>1086</v>
+      <c r="A330" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B330" s="44" t="s">
         <v>652</v>
@@ -10242,8 +10262,8 @@
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331" s="62" t="s">
-        <v>1086</v>
+      <c r="A331" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B331" s="44" t="s">
         <v>654</v>
@@ -10256,8 +10276,8 @@
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332" s="62" t="s">
-        <v>1086</v>
+      <c r="A332" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B332" s="44" t="s">
         <v>655</v>
@@ -10270,8 +10290,8 @@
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333" s="62" t="s">
-        <v>1086</v>
+      <c r="A333" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B333" s="44" t="s">
         <v>657</v>
@@ -10284,8 +10304,8 @@
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334" s="62" t="s">
-        <v>1086</v>
+      <c r="A334" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B334" s="44" t="s">
         <v>658</v>
@@ -10298,8 +10318,8 @@
       </c>
     </row>
     <row r="335" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="62" t="s">
-        <v>1086</v>
+      <c r="A335" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B335" s="47" t="s">
         <v>660</v>
@@ -10314,8 +10334,8 @@
       <c r="F335" s="48"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336" s="62" t="s">
-        <v>1086</v>
+      <c r="A336" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B336" s="44" t="s">
         <v>662</v>
@@ -10328,8 +10348,8 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="62" t="s">
-        <v>1086</v>
+      <c r="A337" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B337" s="44" t="s">
         <v>664</v>
@@ -10342,8 +10362,8 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="62" t="s">
-        <v>1086</v>
+      <c r="A338" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B338" s="44" t="s">
         <v>665</v>
@@ -10356,8 +10376,8 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="62" t="s">
-        <v>1086</v>
+      <c r="A339" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B339" s="44" t="s">
         <v>667</v>
@@ -10370,8 +10390,8 @@
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="62" t="s">
-        <v>1086</v>
+      <c r="A340" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B340" s="44" t="s">
         <v>669</v>
@@ -10384,8 +10404,8 @@
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="62" t="s">
-        <v>1086</v>
+      <c r="A341" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B341" s="44" t="s">
         <v>671</v>
@@ -10398,8 +10418,8 @@
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="62" t="s">
-        <v>1086</v>
+      <c r="A342" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B342" s="44" t="s">
         <v>672</v>
@@ -10412,8 +10432,8 @@
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="62" t="s">
-        <v>1086</v>
+      <c r="A343" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B343" s="44" t="s">
         <v>674</v>
@@ -10426,8 +10446,8 @@
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="62" t="s">
-        <v>1086</v>
+      <c r="A344" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B344" s="44" t="s">
         <v>675</v>
@@ -10440,8 +10460,8 @@
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="62" t="s">
-        <v>1086</v>
+      <c r="A345" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B345" s="44" t="s">
         <v>677</v>
@@ -10454,8 +10474,8 @@
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="62" t="s">
-        <v>1086</v>
+      <c r="A346" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B346" s="44" t="s">
         <v>679</v>
@@ -10468,8 +10488,8 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="62" t="s">
-        <v>1086</v>
+      <c r="A347" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B347" s="44" t="s">
         <v>681</v>
@@ -10482,8 +10502,8 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="62" t="s">
-        <v>1086</v>
+      <c r="A348" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B348" s="44" t="s">
         <v>683</v>
@@ -10496,8 +10516,8 @@
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="62" t="s">
-        <v>1086</v>
+      <c r="A349" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B349" s="44" t="s">
         <v>685</v>
@@ -10510,8 +10530,8 @@
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="62" t="s">
-        <v>1086</v>
+      <c r="A350" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B350" s="44" t="s">
         <v>687</v>
@@ -10524,8 +10544,8 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="62" t="s">
-        <v>1086</v>
+      <c r="A351" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B351" s="44" t="s">
         <v>689</v>
@@ -10538,8 +10558,8 @@
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="62" t="s">
-        <v>1086</v>
+      <c r="A352" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B352" s="44" t="s">
         <v>691</v>
@@ -10552,8 +10572,8 @@
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="62" t="s">
-        <v>1086</v>
+      <c r="A353" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B353" s="44" t="s">
         <v>693</v>
@@ -10566,8 +10586,8 @@
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="62" t="s">
-        <v>1086</v>
+      <c r="A354" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B354" s="44" t="s">
         <v>695</v>
@@ -10580,8 +10600,8 @@
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="62" t="s">
-        <v>1086</v>
+      <c r="A355" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B355" s="44" t="s">
         <v>696</v>
@@ -10594,8 +10614,8 @@
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="62" t="s">
-        <v>1086</v>
+      <c r="A356" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B356" s="44" t="s">
         <v>698</v>
@@ -10608,8 +10628,8 @@
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="62" t="s">
-        <v>1086</v>
+      <c r="A357" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B357" s="44" t="s">
         <v>700</v>
@@ -10622,8 +10642,8 @@
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="62" t="s">
-        <v>1086</v>
+      <c r="A358" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B358" s="44" t="s">
         <v>702</v>
@@ -10636,8 +10656,8 @@
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="62" t="s">
-        <v>1086</v>
+      <c r="A359" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B359" s="44" t="s">
         <v>704</v>
@@ -10650,8 +10670,8 @@
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="62" t="s">
-        <v>1086</v>
+      <c r="A360" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B360" s="44" t="s">
         <v>706</v>
@@ -10664,8 +10684,8 @@
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="62" t="s">
-        <v>1086</v>
+      <c r="A361" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B361" s="44" t="s">
         <v>708</v>
@@ -10678,8 +10698,8 @@
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="62" t="s">
-        <v>1086</v>
+      <c r="A362" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B362" s="44" t="s">
         <v>710</v>
@@ -10692,8 +10712,8 @@
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="62" t="s">
-        <v>1086</v>
+      <c r="A363" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B363" s="44" t="s">
         <v>712</v>
@@ -10706,8 +10726,8 @@
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="62" t="s">
-        <v>1086</v>
+      <c r="A364" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B364" s="44" t="s">
         <v>714</v>
@@ -10720,8 +10740,8 @@
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="62" t="s">
-        <v>1086</v>
+      <c r="A365" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B365" s="44" t="s">
         <v>716</v>
@@ -10734,8 +10754,8 @@
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="62" t="s">
-        <v>1086</v>
+      <c r="A366" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B366" s="44" t="s">
         <v>718</v>
@@ -10748,8 +10768,8 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="62" t="s">
-        <v>1086</v>
+      <c r="A367" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B367" s="44" t="s">
         <v>720</v>
@@ -10762,8 +10782,8 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="62" t="s">
-        <v>1086</v>
+      <c r="A368" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B368" s="44" t="s">
         <v>722</v>
@@ -10776,8 +10796,8 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="62" t="s">
-        <v>1086</v>
+      <c r="A369" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B369" s="44" t="s">
         <v>723</v>
@@ -10790,8 +10810,8 @@
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="62" t="s">
-        <v>1086</v>
+      <c r="A370" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B370" s="44" t="s">
         <v>725</v>
@@ -10804,8 +10824,8 @@
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="62" t="s">
-        <v>1086</v>
+      <c r="A371" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B371" s="44" t="s">
         <v>727</v>
@@ -10818,8 +10838,8 @@
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="62" t="s">
-        <v>1086</v>
+      <c r="A372" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B372" s="44" t="s">
         <v>729</v>
@@ -10832,8 +10852,8 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="62" t="s">
-        <v>1086</v>
+      <c r="A373" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B373" s="44" t="s">
         <v>731</v>
@@ -10846,8 +10866,8 @@
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="62" t="s">
-        <v>1086</v>
+      <c r="A374" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B374" s="44" t="s">
         <v>733</v>
@@ -10860,8 +10880,8 @@
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="62" t="s">
-        <v>1086</v>
+      <c r="A375" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B375" s="44" t="s">
         <v>735</v>
@@ -10874,8 +10894,8 @@
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="62" t="s">
-        <v>1086</v>
+      <c r="A376" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B376" s="44" t="s">
         <v>737</v>
@@ -10888,8 +10908,8 @@
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="62" t="s">
-        <v>1086</v>
+      <c r="A377" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B377" s="44" t="s">
         <v>738</v>
@@ -10902,8 +10922,8 @@
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="62" t="s">
-        <v>1086</v>
+      <c r="A378" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B378" s="44" t="s">
         <v>739</v>
@@ -10916,8 +10936,8 @@
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="62" t="s">
-        <v>1086</v>
+      <c r="A379" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B379" s="44" t="s">
         <v>741</v>
@@ -10930,8 +10950,8 @@
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="62" t="s">
-        <v>1086</v>
+      <c r="A380" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B380" s="44" t="s">
         <v>743</v>
@@ -10944,8 +10964,8 @@
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="62" t="s">
-        <v>1086</v>
+      <c r="A381" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B381" s="44" t="s">
         <v>745</v>
@@ -10958,8 +10978,8 @@
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="62" t="s">
-        <v>1086</v>
+      <c r="A382" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B382" s="44" t="s">
         <v>747</v>
@@ -10972,8 +10992,8 @@
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="62" t="s">
-        <v>1086</v>
+      <c r="A383" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B383" s="44" t="s">
         <v>749</v>
@@ -10986,8 +11006,8 @@
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="62" t="s">
-        <v>1086</v>
+      <c r="A384" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B384" s="44" t="s">
         <v>750</v>
@@ -11000,8 +11020,8 @@
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="62" t="s">
-        <v>1086</v>
+      <c r="A385" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B385" s="44" t="s">
         <v>752</v>
@@ -11014,8 +11034,8 @@
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="62" t="s">
-        <v>1086</v>
+      <c r="A386" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B386" s="44" t="s">
         <v>754</v>
@@ -11028,8 +11048,8 @@
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="62" t="s">
-        <v>1086</v>
+      <c r="A387" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B387" s="44" t="s">
         <v>756</v>
@@ -11042,8 +11062,8 @@
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="62" t="s">
-        <v>1086</v>
+      <c r="A388" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B388" s="44" t="s">
         <v>758</v>
@@ -11056,8 +11076,8 @@
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="62" t="s">
-        <v>1086</v>
+      <c r="A389" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B389" s="44" t="s">
         <v>760</v>
@@ -11070,8 +11090,8 @@
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="62" t="s">
-        <v>1086</v>
+      <c r="A390" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B390" s="44" t="s">
         <v>762</v>
@@ -11084,8 +11104,8 @@
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="62" t="s">
-        <v>1086</v>
+      <c r="A391" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B391" s="44" t="s">
         <v>763</v>
@@ -11098,8 +11118,8 @@
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="62" t="s">
-        <v>1086</v>
+      <c r="A392" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B392" s="44" t="s">
         <v>765</v>
@@ -11112,8 +11132,8 @@
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="62" t="s">
-        <v>1086</v>
+      <c r="A393" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B393" s="44" t="s">
         <v>767</v>
@@ -11126,8 +11146,8 @@
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="62" t="s">
-        <v>1086</v>
+      <c r="A394" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B394" s="44" t="s">
         <v>769</v>
@@ -11140,8 +11160,8 @@
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="62" t="s">
-        <v>1086</v>
+      <c r="A395" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B395" s="44" t="s">
         <v>771</v>
@@ -11154,8 +11174,8 @@
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="62" t="s">
-        <v>1086</v>
+      <c r="A396" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B396" s="44" t="s">
         <v>772</v>
@@ -11168,8 +11188,8 @@
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="62" t="s">
-        <v>1086</v>
+      <c r="A397" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B397" s="44" t="s">
         <v>774</v>
@@ -11182,8 +11202,8 @@
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="62" t="s">
-        <v>1086</v>
+      <c r="A398" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B398" s="44" t="s">
         <v>775</v>
@@ -11196,8 +11216,8 @@
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="62" t="s">
-        <v>1086</v>
+      <c r="A399" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B399" s="44" t="s">
         <v>777</v>
@@ -11210,8 +11230,8 @@
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="62" t="s">
-        <v>1086</v>
+      <c r="A400" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B400" s="44" t="s">
         <v>779</v>
@@ -11224,8 +11244,8 @@
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="62" t="s">
-        <v>1086</v>
+      <c r="A401" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B401" s="44" t="s">
         <v>781</v>
@@ -11238,8 +11258,8 @@
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="62" t="s">
-        <v>1086</v>
+      <c r="A402" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B402" s="44" t="s">
         <v>783</v>
@@ -11252,8 +11272,8 @@
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="62" t="s">
-        <v>1086</v>
+      <c r="A403" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B403" s="44" t="s">
         <v>785</v>
@@ -11266,8 +11286,8 @@
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="62" t="s">
-        <v>1086</v>
+      <c r="A404" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B404" s="44" t="s">
         <v>787</v>
@@ -11280,8 +11300,8 @@
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="62" t="s">
-        <v>1086</v>
+      <c r="A405" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B405" s="44" t="s">
         <v>789</v>
@@ -11294,8 +11314,8 @@
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="62" t="s">
-        <v>1086</v>
+      <c r="A406" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B406" s="44" t="s">
         <v>791</v>
@@ -11308,8 +11328,8 @@
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="62" t="s">
-        <v>1086</v>
+      <c r="A407" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B407" s="44" t="s">
         <v>792</v>
@@ -11322,8 +11342,8 @@
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="62" t="s">
-        <v>1086</v>
+      <c r="A408" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B408" s="44" t="s">
         <v>793</v>
@@ -11336,8 +11356,8 @@
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="62" t="s">
-        <v>1086</v>
+      <c r="A409" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B409" s="44" t="s">
         <v>795</v>
@@ -11350,8 +11370,8 @@
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="62" t="s">
-        <v>1086</v>
+      <c r="A410" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B410" s="44" t="s">
         <v>797</v>
@@ -11364,8 +11384,8 @@
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" s="62" t="s">
-        <v>1086</v>
+      <c r="A411" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B411" s="44" t="s">
         <v>799</v>
@@ -11378,8 +11398,8 @@
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="62" t="s">
-        <v>1086</v>
+      <c r="A412" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B412" s="44" t="s">
         <v>801</v>
@@ -11392,8 +11412,8 @@
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="62" t="s">
-        <v>1086</v>
+      <c r="A413" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B413" s="44" t="s">
         <v>803</v>
@@ -11406,8 +11426,8 @@
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="62" t="s">
-        <v>1086</v>
+      <c r="A414" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B414" s="44" t="s">
         <v>805</v>
@@ -11420,8 +11440,8 @@
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="62" t="s">
-        <v>1086</v>
+      <c r="A415" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B415" s="44" t="s">
         <v>806</v>
@@ -11434,8 +11454,8 @@
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="62" t="s">
-        <v>1086</v>
+      <c r="A416" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B416" s="44" t="s">
         <v>808</v>
@@ -11448,8 +11468,8 @@
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="62" t="s">
-        <v>1086</v>
+      <c r="A417" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B417" s="44" t="s">
         <v>810</v>
@@ -11462,8 +11482,8 @@
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="62" t="s">
-        <v>1086</v>
+      <c r="A418" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B418" s="44" t="s">
         <v>811</v>
@@ -11476,8 +11496,8 @@
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="62" t="s">
-        <v>1086</v>
+      <c r="A419" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B419" s="44" t="s">
         <v>813</v>
@@ -11490,8 +11510,8 @@
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" s="62" t="s">
-        <v>1086</v>
+      <c r="A420" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B420" s="44" t="s">
         <v>815</v>
@@ -11504,8 +11524,8 @@
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="62" t="s">
-        <v>1086</v>
+      <c r="A421" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B421" s="44" t="s">
         <v>816</v>
@@ -11518,8 +11538,8 @@
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="62" t="s">
-        <v>1086</v>
+      <c r="A422" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B422" s="44" t="s">
         <v>818</v>
@@ -11532,8 +11552,8 @@
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="62" t="s">
-        <v>1086</v>
+      <c r="A423" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B423" s="44" t="s">
         <v>820</v>
@@ -11546,8 +11566,8 @@
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="62" t="s">
-        <v>1086</v>
+      <c r="A424" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B424" s="44" t="s">
         <v>822</v>
@@ -11560,8 +11580,8 @@
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="62" t="s">
-        <v>1086</v>
+      <c r="A425" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B425" s="44" t="s">
         <v>824</v>
@@ -11574,8 +11594,8 @@
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="62" t="s">
-        <v>1086</v>
+      <c r="A426" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B426" s="44" t="s">
         <v>825</v>
@@ -11588,8 +11608,8 @@
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="62" t="s">
-        <v>1086</v>
+      <c r="A427" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B427" s="44" t="s">
         <v>827</v>
@@ -11602,8 +11622,8 @@
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="62" t="s">
-        <v>1086</v>
+      <c r="A428" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B428" s="44" t="s">
         <v>829</v>
@@ -11616,8 +11636,8 @@
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="62" t="s">
-        <v>1086</v>
+      <c r="A429" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B429" s="44" t="s">
         <v>831</v>
@@ -11630,8 +11650,8 @@
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="62" t="s">
-        <v>1086</v>
+      <c r="A430" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B430" s="44" t="s">
         <v>832</v>
@@ -11644,8 +11664,8 @@
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="62" t="s">
-        <v>1086</v>
+      <c r="A431" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B431" s="44" t="s">
         <v>834</v>
@@ -11658,8 +11678,8 @@
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="62" t="s">
-        <v>1086</v>
+      <c r="A432" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B432" s="44" t="s">
         <v>835</v>
@@ -11672,8 +11692,8 @@
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="62" t="s">
-        <v>1086</v>
+      <c r="A433" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B433" s="44" t="s">
         <v>836</v>
@@ -11686,8 +11706,8 @@
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" s="62" t="s">
-        <v>1086</v>
+      <c r="A434" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B434" s="44" t="s">
         <v>838</v>
@@ -11700,8 +11720,8 @@
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" s="62" t="s">
-        <v>1086</v>
+      <c r="A435" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B435" s="44" t="s">
         <v>839</v>
@@ -11714,8 +11734,8 @@
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436" s="62" t="s">
-        <v>1086</v>
+      <c r="A436" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B436" s="44" t="s">
         <v>841</v>
@@ -11728,8 +11748,8 @@
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" s="62" t="s">
-        <v>1086</v>
+      <c r="A437" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B437" s="44" t="s">
         <v>843</v>
@@ -11742,8 +11762,8 @@
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" s="62" t="s">
-        <v>1086</v>
+      <c r="A438" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B438" s="44" t="s">
         <v>844</v>
@@ -11756,8 +11776,8 @@
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="62" t="s">
-        <v>1086</v>
+      <c r="A439" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B439" s="44" t="s">
         <v>846</v>
@@ -11770,8 +11790,8 @@
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="62" t="s">
-        <v>1086</v>
+      <c r="A440" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B440" s="44" t="s">
         <v>847</v>
@@ -11784,8 +11804,8 @@
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="62" t="s">
-        <v>1086</v>
+      <c r="A441" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B441" s="44" t="s">
         <v>849</v>
@@ -11798,8 +11818,8 @@
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" s="62" t="s">
-        <v>1086</v>
+      <c r="A442" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B442" s="44" t="s">
         <v>850</v>
@@ -11812,8 +11832,8 @@
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="62" t="s">
-        <v>1086</v>
+      <c r="A443" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B443" s="44" t="s">
         <v>852</v>
@@ -11826,8 +11846,8 @@
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="62" t="s">
-        <v>1086</v>
+      <c r="A444" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B444" s="44" t="s">
         <v>853</v>
@@ -11840,8 +11860,8 @@
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="62" t="s">
-        <v>1086</v>
+      <c r="A445" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B445" s="44" t="s">
         <v>855</v>
@@ -11854,8 +11874,8 @@
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="62" t="s">
-        <v>1086</v>
+      <c r="A446" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B446" s="44" t="s">
         <v>857</v>
@@ -11868,8 +11888,8 @@
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="62" t="s">
-        <v>1086</v>
+      <c r="A447" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B447" s="44" t="s">
         <v>858</v>
@@ -11882,8 +11902,8 @@
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="62" t="s">
-        <v>1086</v>
+      <c r="A448" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B448" s="44" t="s">
         <v>859</v>
@@ -11896,8 +11916,8 @@
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="62" t="s">
-        <v>1086</v>
+      <c r="A449" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B449" s="44" t="s">
         <v>861</v>
@@ -11910,8 +11930,8 @@
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="62" t="s">
-        <v>1086</v>
+      <c r="A450" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B450" s="44" t="s">
         <v>862</v>
@@ -11924,8 +11944,8 @@
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="62" t="s">
-        <v>1086</v>
+      <c r="A451" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B451" s="44" t="s">
         <v>864</v>
@@ -11938,8 +11958,8 @@
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" s="62" t="s">
-        <v>1086</v>
+      <c r="A452" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B452" s="44" t="s">
         <v>865</v>
@@ -11952,8 +11972,8 @@
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="62" t="s">
-        <v>1086</v>
+      <c r="A453" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B453" s="44" t="s">
         <v>867</v>
@@ -11966,8 +11986,8 @@
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" s="62" t="s">
-        <v>1086</v>
+      <c r="A454" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B454" s="44" t="s">
         <v>868</v>
@@ -11980,8 +12000,8 @@
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" s="62" t="s">
-        <v>1086</v>
+      <c r="A455" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B455" s="44" t="s">
         <v>870</v>
@@ -11994,8 +12014,8 @@
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" s="62" t="s">
-        <v>1086</v>
+      <c r="A456" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B456" s="44" t="s">
         <v>871</v>
@@ -12008,8 +12028,8 @@
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="62" t="s">
-        <v>1086</v>
+      <c r="A457" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B457" s="44" t="s">
         <v>873</v>
@@ -12022,8 +12042,8 @@
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" s="62" t="s">
-        <v>1086</v>
+      <c r="A458" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B458" s="44" t="s">
         <v>875</v>
@@ -12036,8 +12056,8 @@
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="62" t="s">
-        <v>1086</v>
+      <c r="A459" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B459" s="44" t="s">
         <v>876</v>
@@ -12050,8 +12070,8 @@
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" s="62" t="s">
-        <v>1086</v>
+      <c r="A460" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B460" s="44" t="s">
         <v>878</v>
@@ -12064,8 +12084,8 @@
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" s="62" t="s">
-        <v>1086</v>
+      <c r="A461" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B461" s="44" t="s">
         <v>879</v>
@@ -12078,8 +12098,8 @@
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462" s="62" t="s">
-        <v>1086</v>
+      <c r="A462" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B462" s="44" t="s">
         <v>881</v>
@@ -12092,8 +12112,8 @@
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" s="62" t="s">
-        <v>1086</v>
+      <c r="A463" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B463" s="44" t="s">
         <v>882</v>
@@ -12106,8 +12126,8 @@
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" s="62" t="s">
-        <v>1086</v>
+      <c r="A464" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B464" s="44" t="s">
         <v>884</v>
@@ -12120,8 +12140,8 @@
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="62" t="s">
-        <v>1086</v>
+      <c r="A465" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B465" s="44" t="s">
         <v>886</v>
@@ -12134,8 +12154,8 @@
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="62" t="s">
-        <v>1086</v>
+      <c r="A466" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B466" s="44" t="s">
         <v>887</v>
@@ -12148,8 +12168,8 @@
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" s="62" t="s">
-        <v>1086</v>
+      <c r="A467" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B467" s="44" t="s">
         <v>889</v>
@@ -12162,8 +12182,8 @@
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="62" t="s">
-        <v>1086</v>
+      <c r="A468" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B468" s="44" t="s">
         <v>891</v>
@@ -12176,8 +12196,8 @@
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="62" t="s">
-        <v>1086</v>
+      <c r="A469" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B469" s="44" t="s">
         <v>893</v>
@@ -12190,8 +12210,8 @@
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="62" t="s">
-        <v>1086</v>
+      <c r="A470" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B470" s="44" t="s">
         <v>895</v>
@@ -12204,8 +12224,8 @@
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="62" t="s">
-        <v>1086</v>
+      <c r="A471" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B471" s="44" t="s">
         <v>897</v>
@@ -12218,8 +12238,8 @@
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" s="62" t="s">
-        <v>1086</v>
+      <c r="A472" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B472" s="44" t="s">
         <v>899</v>
@@ -12232,8 +12252,8 @@
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="62" t="s">
-        <v>1086</v>
+      <c r="A473" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B473" s="44" t="s">
         <v>901</v>
@@ -12246,8 +12266,8 @@
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="62" t="s">
-        <v>1086</v>
+      <c r="A474" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B474" s="44" t="s">
         <v>903</v>
@@ -12260,8 +12280,8 @@
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="62" t="s">
-        <v>1086</v>
+      <c r="A475" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B475" s="44" t="s">
         <v>905</v>
@@ -12274,8 +12294,8 @@
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="62" t="s">
-        <v>1086</v>
+      <c r="A476" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B476" s="44" t="s">
         <v>907</v>
@@ -12288,8 +12308,8 @@
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477" s="62" t="s">
-        <v>1086</v>
+      <c r="A477" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B477" s="44" t="s">
         <v>909</v>
@@ -12302,8 +12322,8 @@
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478" s="62" t="s">
-        <v>1086</v>
+      <c r="A478" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B478" s="44" t="s">
         <v>911</v>
@@ -12316,8 +12336,8 @@
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479" s="62" t="s">
-        <v>1086</v>
+      <c r="A479" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B479" s="44" t="s">
         <v>913</v>
@@ -12330,8 +12350,8 @@
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480" s="62" t="s">
-        <v>1086</v>
+      <c r="A480" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B480" s="44" t="s">
         <v>915</v>
@@ -12344,8 +12364,8 @@
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481" s="62" t="s">
-        <v>1086</v>
+      <c r="A481" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B481" s="44" t="s">
         <v>916</v>
@@ -12358,8 +12378,8 @@
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482" s="62" t="s">
-        <v>1086</v>
+      <c r="A482" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B482" s="44" t="s">
         <v>918</v>
@@ -12372,8 +12392,8 @@
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483" s="62" t="s">
-        <v>1086</v>
+      <c r="A483" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B483" s="44" t="s">
         <v>920</v>
@@ -12386,8 +12406,8 @@
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484" s="62" t="s">
-        <v>1086</v>
+      <c r="A484" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B484" s="44" t="s">
         <v>921</v>
@@ -12400,8 +12420,8 @@
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485" s="62" t="s">
-        <v>1086</v>
+      <c r="A485" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B485" s="44" t="s">
         <v>923</v>
@@ -12414,8 +12434,8 @@
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486" s="62" t="s">
-        <v>1086</v>
+      <c r="A486" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B486" s="44" t="s">
         <v>925</v>
@@ -12428,8 +12448,8 @@
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487" s="62" t="s">
-        <v>1086</v>
+      <c r="A487" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B487" s="44" t="s">
         <v>927</v>
@@ -12442,8 +12462,8 @@
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488" s="62" t="s">
-        <v>1086</v>
+      <c r="A488" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B488" s="44" t="s">
         <v>929</v>
@@ -12456,8 +12476,8 @@
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" s="62" t="s">
-        <v>1086</v>
+      <c r="A489" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B489" s="44" t="s">
         <v>931</v>
@@ -12470,8 +12490,8 @@
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" s="62" t="s">
-        <v>1086</v>
+      <c r="A490" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B490" s="44" t="s">
         <v>933</v>
@@ -12484,8 +12504,8 @@
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491" s="62" t="s">
-        <v>1086</v>
+      <c r="A491" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B491" s="44" t="s">
         <v>935</v>
@@ -12498,8 +12518,8 @@
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492" s="62" t="s">
-        <v>1086</v>
+      <c r="A492" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B492" s="44" t="s">
         <v>937</v>
@@ -12512,8 +12532,8 @@
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493" s="62" t="s">
-        <v>1086</v>
+      <c r="A493" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B493" s="44" t="s">
         <v>938</v>
@@ -12526,8 +12546,8 @@
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494" s="62" t="s">
-        <v>1086</v>
+      <c r="A494" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B494" s="44" t="s">
         <v>940</v>
@@ -12540,8 +12560,8 @@
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495" s="62" t="s">
-        <v>1086</v>
+      <c r="A495" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B495" s="44" t="s">
         <v>942</v>
@@ -12554,8 +12574,8 @@
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496" s="62" t="s">
-        <v>1086</v>
+      <c r="A496" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B496" s="44" t="s">
         <v>944</v>
@@ -12568,8 +12588,8 @@
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A497" s="62" t="s">
-        <v>1086</v>
+      <c r="A497" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B497" s="44" t="s">
         <v>946</v>
@@ -12582,8 +12602,8 @@
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498" s="62" t="s">
-        <v>1086</v>
+      <c r="A498" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B498" s="44" t="s">
         <v>948</v>
@@ -12596,8 +12616,8 @@
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499" s="62" t="s">
-        <v>1086</v>
+      <c r="A499" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B499" s="44" t="s">
         <v>950</v>
@@ -12610,8 +12630,8 @@
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A500" s="62" t="s">
-        <v>1086</v>
+      <c r="A500" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B500" s="44" t="s">
         <v>952</v>
@@ -12624,8 +12644,8 @@
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" s="62" t="s">
-        <v>1086</v>
+      <c r="A501" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B501" s="44" t="s">
         <v>954</v>
@@ -12638,8 +12658,8 @@
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A502" s="62" t="s">
-        <v>1086</v>
+      <c r="A502" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B502" s="44" t="s">
         <v>956</v>
@@ -12652,8 +12672,8 @@
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A503" s="62" t="s">
-        <v>1086</v>
+      <c r="A503" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B503" s="44" t="s">
         <v>957</v>
@@ -12666,8 +12686,8 @@
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A504" s="62" t="s">
-        <v>1086</v>
+      <c r="A504" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B504" s="44" t="s">
         <v>959</v>
@@ -12680,8 +12700,8 @@
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A505" s="62" t="s">
-        <v>1086</v>
+      <c r="A505" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B505" s="44" t="s">
         <v>960</v>
@@ -12694,8 +12714,8 @@
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" s="62" t="s">
-        <v>1086</v>
+      <c r="A506" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B506" s="44" t="s">
         <v>962</v>
@@ -12708,8 +12728,8 @@
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A507" s="62" t="s">
-        <v>1086</v>
+      <c r="A507" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B507" s="44" t="s">
         <v>964</v>
@@ -12722,8 +12742,8 @@
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A508" s="62" t="s">
-        <v>1086</v>
+      <c r="A508" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B508" s="44" t="s">
         <v>966</v>
@@ -12736,8 +12756,8 @@
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A509" s="62" t="s">
-        <v>1086</v>
+      <c r="A509" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B509" s="44" t="s">
         <v>968</v>
@@ -12750,8 +12770,8 @@
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A510" s="62" t="s">
-        <v>1086</v>
+      <c r="A510" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B510" s="44" t="s">
         <v>970</v>
@@ -12764,8 +12784,8 @@
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A511" s="62" t="s">
-        <v>1086</v>
+      <c r="A511" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B511" s="44" t="s">
         <v>971</v>
@@ -12778,8 +12798,8 @@
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A512" s="62" t="s">
-        <v>1086</v>
+      <c r="A512" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B512" s="44" t="s">
         <v>973</v>
@@ -12792,8 +12812,8 @@
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A513" s="62" t="s">
-        <v>1086</v>
+      <c r="A513" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B513" s="44" t="s">
         <v>974</v>
@@ -12806,8 +12826,8 @@
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A514" s="62" t="s">
-        <v>1086</v>
+      <c r="A514" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B514" s="44" t="s">
         <v>976</v>
@@ -12820,8 +12840,8 @@
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A515" s="62" t="s">
-        <v>1086</v>
+      <c r="A515" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B515" s="44" t="s">
         <v>978</v>
@@ -12834,8 +12854,8 @@
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A516" s="62" t="s">
-        <v>1086</v>
+      <c r="A516" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B516" s="44" t="s">
         <v>980</v>
@@ -12848,8 +12868,8 @@
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A517" s="62" t="s">
-        <v>1086</v>
+      <c r="A517" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B517" s="44" t="s">
         <v>982</v>
@@ -12862,8 +12882,8 @@
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A518" s="62" t="s">
-        <v>1086</v>
+      <c r="A518" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B518" s="44" t="s">
         <v>983</v>
@@ -12876,8 +12896,8 @@
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A519" s="62" t="s">
-        <v>1086</v>
+      <c r="A519" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B519" s="44" t="s">
         <v>985</v>
@@ -12890,8 +12910,8 @@
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A520" s="62" t="s">
-        <v>1086</v>
+      <c r="A520" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B520" s="44" t="s">
         <v>987</v>
@@ -12904,8 +12924,8 @@
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A521" s="62" t="s">
-        <v>1086</v>
+      <c r="A521" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B521" s="44" t="s">
         <v>989</v>
@@ -12918,8 +12938,8 @@
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A522" s="62" t="s">
-        <v>1086</v>
+      <c r="A522" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B522" s="44" t="s">
         <v>991</v>
@@ -12932,8 +12952,8 @@
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A523" s="62" t="s">
-        <v>1086</v>
+      <c r="A523" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B523" s="44" t="s">
         <v>993</v>
@@ -12946,8 +12966,8 @@
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A524" s="62" t="s">
-        <v>1086</v>
+      <c r="A524" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B524" s="44" t="s">
         <v>994</v>
@@ -12960,8 +12980,8 @@
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A525" s="62" t="s">
-        <v>1086</v>
+      <c r="A525" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B525" s="44" t="s">
         <v>996</v>
@@ -12974,8 +12994,8 @@
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A526" s="62" t="s">
-        <v>1086</v>
+      <c r="A526" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B526" s="44" t="s">
         <v>998</v>
@@ -12988,8 +13008,8 @@
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A527" s="62" t="s">
-        <v>1086</v>
+      <c r="A527" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B527" s="44" t="s">
         <v>1000</v>
@@ -13002,8 +13022,8 @@
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A528" s="62" t="s">
-        <v>1086</v>
+      <c r="A528" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B528" s="44" t="s">
         <v>1002</v>
@@ -13016,8 +13036,8 @@
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A529" s="62" t="s">
-        <v>1086</v>
+      <c r="A529" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B529" s="44" t="s">
         <v>1004</v>
@@ -13030,8 +13050,8 @@
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A530" s="62" t="s">
-        <v>1086</v>
+      <c r="A530" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B530" s="44" t="s">
         <v>1006</v>
@@ -13044,8 +13064,8 @@
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A531" s="62" t="s">
-        <v>1086</v>
+      <c r="A531" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B531" s="44" t="s">
         <v>1007</v>
@@ -13058,8 +13078,8 @@
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A532" s="62" t="s">
-        <v>1086</v>
+      <c r="A532" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B532" s="44" t="s">
         <v>1009</v>
@@ -13072,8 +13092,8 @@
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A533" s="62" t="s">
-        <v>1086</v>
+      <c r="A533" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B533" s="44" t="s">
         <v>1011</v>
@@ -13086,8 +13106,8 @@
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A534" s="62" t="s">
-        <v>1086</v>
+      <c r="A534" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B534" s="44" t="s">
         <v>1013</v>
@@ -13100,8 +13120,8 @@
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A535" s="62" t="s">
-        <v>1086</v>
+      <c r="A535" s="61" t="s">
+        <v>1085</v>
       </c>
       <c r="B535" s="44" t="s">
         <v>1014</v>
@@ -13119,50 +13139,50 @@
       <c r="C536" s="37"/>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A537" s="62" t="s">
+      <c r="A537" s="61" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B537" s="62" t="s">
         <v>1087</v>
       </c>
-      <c r="B537" s="63" t="s">
+      <c r="C537" s="58" t="s">
         <v>1088</v>
       </c>
-      <c r="C537" s="59" t="s">
+      <c r="D537" s="62"/>
+      <c r="E537" s="62"/>
+      <c r="F537" s="62" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A538" s="61" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B538" s="62" t="s">
         <v>1089</v>
       </c>
-      <c r="D537" s="63"/>
-      <c r="E537" s="63"/>
-      <c r="F537" s="63" t="s">
+      <c r="C538" s="58" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D538" s="62"/>
+      <c r="E538" s="62"/>
+      <c r="F538" s="62" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A538" s="62" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B538" s="63" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C538" s="59" t="s">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539" s="61" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B539" s="62" t="s">
         <v>1091</v>
       </c>
-      <c r="D538" s="63"/>
-      <c r="E538" s="63"/>
-      <c r="F538" s="63" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A539" s="62" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B539" s="63" t="s">
+      <c r="C539" s="58" t="s">
         <v>1092</v>
       </c>
-      <c r="C539" s="59" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D539" s="63"/>
-      <c r="E539" s="63"/>
-      <c r="F539" s="63" t="s">
+      <c r="D539" s="62"/>
+      <c r="E539" s="62"/>
+      <c r="F539" s="62" t="s">
         <v>618</v>
       </c>
     </row>
@@ -30523,8 +30543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30552,16 +30572,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C2" s="22">
-        <v>201902273</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>1100</v>
+        <v>201902271</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>1099</v>
       </c>
     </row>
   </sheetData>

--- a/ILRG_ORAM_C_limites/ILRG_ORAM_C_limites-media/ILRG_ORAM_C_limites.xlsx
+++ b/ILRG_ORAM_C_limites/ILRG_ORAM_C_limites-media/ILRG_ORAM_C_limites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Dams project\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_C_limites\ILRG_ORAM_C_limites-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC44D6A-3973-48D0-BF73-4524D07D009E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33320113-ED37-4E8D-826E-0C4C2186D52A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -3352,9 +3352,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3566,385 +3573,386 @@
   </borders>
   <cellStyleXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="237" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="237" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="237" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="237" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="237" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="237"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="237" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="237" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="237" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="237" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="237" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="237"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="238">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4523,11 +4531,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4623,7 +4631,7 @@
       <c r="B5" s="29" t="s">
         <v>1031</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="M5" s="66" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -4687,7 +4695,7 @@
       <c r="B11" s="57" t="s">
         <v>1072</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="66" t="s">
         <v>1103</v>
       </c>
       <c r="J11" s="13" t="s">
@@ -4953,7 +4961,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5260,9 +5268,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4195"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A520" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C542" sqref="C542"/>
+      <selection pane="bottomLeft" activeCell="C545" sqref="C545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30544,7 +30552,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ILRG_ORAM_C_limites/ILRG_ORAM_C_limites-media/ILRG_ORAM_C_limites.xlsx
+++ b/ILRG_ORAM_C_limites/ILRG_ORAM_C_limites-media/ILRG_ORAM_C_limites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Grants\Dams project\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_C_limites\ILRG_ORAM_C_limites-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33320113-ED37-4E8D-826E-0C4C2186D52A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882C3047-CF4D-4426-ACC1-942936BB3004}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="1103">
   <si>
     <t>type</t>
   </si>
@@ -3159,24 +3159,15 @@
     <t>ILRG_ORAM_C</t>
   </si>
   <si>
-    <t>Inicio</t>
-  </si>
-  <si>
     <t>field-list</t>
   </si>
   <si>
     <t>logo</t>
   </si>
   <si>
-    <t>form_logo.jpg</t>
-  </si>
-  <si>
     <t>cavateco</t>
   </si>
   <si>
-    <t>&lt;br/&gt; &lt;h1&gt;A Cadeia de Valor de Terra Comunitária&lt;/h1&gt;&lt;br/&gt; &lt;h2&gt;Uma iniciativa da Terra Firma&lt;/h2&gt;&lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;</t>
-  </si>
-  <si>
     <t>Cg1</t>
   </si>
   <si>
@@ -3336,25 +3327,38 @@
     <t>concat('Village_limits','_',${village_id})</t>
   </si>
   <si>
-    <t>ILRG ORAM C - Limites dos povoados</t>
-  </si>
-  <si>
     <t>deviceid</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>&lt;h2&gt;Introduza o seu nome&lt;/h2&gt;&lt;br&gt;&lt;br&gt;Nome do(a) técnico(a):</t>
+    <t>Introduza o seu nome&lt;br&gt;Nome do(a) técnico(a):</t>
+  </si>
+  <si>
+    <t>&lt;br/&gt; &lt;h1&gt;Projecto de Governação Integrada de Terra e Recursos&lt;/h1&gt;&lt;br/&gt; &lt;h2&gt;Uma iniciativa da USAID implementada pela ORAM e Terra Firma&lt;/h2&gt;&lt;span style="color:#57b055"&gt;${my_form_name}&lt;/span&gt; &lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>oram_USAID.jpg</t>
+  </si>
+  <si>
+    <t>ILRG ORAM C - Limites dos Povoados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3573,385 +3577,386 @@
   </borders>
   <cellStyleXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="237" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="237" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="237" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="237" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="237" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="237"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="237" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="237" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="237" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="237" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="237" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="237"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="238">
@@ -4532,10 +4537,10 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17:B20"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4615,13 +4620,13 @@
     </row>
     <row r="4" spans="1:15" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4632,7 +4637,7 @@
         <v>1031</v>
       </c>
       <c r="M5" s="66" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -4640,13 +4645,11 @@
         <v>22</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="L6" s="56" t="s">
         <v>1041</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -4654,10 +4657,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>1043</v>
-      </c>
-      <c r="N7" s="56" t="s">
-        <v>1044</v>
+        <v>1042</v>
+      </c>
+      <c r="N7" s="67" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -4665,10 +4668,10 @@
         <v>36</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>1046</v>
+        <v>1043</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -4693,10 +4696,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>1103</v>
+        <v>1069</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>1099</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>21</v>
@@ -4707,16 +4710,16 @@
         <v>22</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="G12" s="56" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="L12" s="56" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="56" customFormat="1" x14ac:dyDescent="0.25">
@@ -4724,10 +4727,10 @@
         <v>1032</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="H13" s="56" t="s">
         <v>1033</v>
@@ -4741,10 +4744,10 @@
         <v>1032</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="H14" s="56" t="s">
         <v>1033</v>
@@ -4815,10 +4818,10 @@
     </row>
     <row r="19" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C19" s="56" t="s">
         <v>1022</v>
@@ -4835,16 +4838,16 @@
     </row>
     <row r="20" spans="1:13" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B20" s="57" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D20" s="56" t="s">
         <v>1080</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>1083</v>
       </c>
       <c r="J20" s="56" t="s">
         <v>21</v>
@@ -4858,7 +4861,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>31</v>
@@ -4875,7 +4878,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>1036</v>
@@ -4887,7 +4890,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C23" s="36" t="s">
         <v>1037</v>
@@ -4911,7 +4914,7 @@
       <c r="G24" s="11"/>
       <c r="J24" s="12"/>
       <c r="M24" s="56" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -4927,7 +4930,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C26" s="54" t="s">
         <v>1038</v>
@@ -4994,10 +4997,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5016,10 +5019,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5027,10 +5030,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5038,10 +5041,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5049,10 +5052,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5060,10 +5063,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D9" s="14"/>
     </row>
@@ -5072,10 +5075,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D10" s="14"/>
     </row>
@@ -5084,10 +5087,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C11" s="60" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5095,10 +5098,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5106,10 +5109,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5117,10 +5120,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C14" s="60" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5128,7 +5131,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C15" s="58" t="s">
         <v>35</v>
@@ -5268,7 +5271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A520" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C545" sqref="C545"/>
     </sheetView>
@@ -5301,7 +5304,7 @@
         <v>44</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7721,7 +7724,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B149" s="44" t="s">
         <v>333</v>
@@ -7735,7 +7738,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B150" s="44" t="s">
         <v>335</v>
@@ -7749,7 +7752,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B151" s="44" t="s">
         <v>337</v>
@@ -7763,7 +7766,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B152" s="44" t="s">
         <v>339</v>
@@ -7777,7 +7780,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B153" s="46" t="s">
         <v>341</v>
@@ -7791,7 +7794,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B154" s="44" t="s">
         <v>343</v>
@@ -7805,7 +7808,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B155" s="44" t="s">
         <v>345</v>
@@ -7819,7 +7822,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B156" s="44" t="s">
         <v>347</v>
@@ -7833,7 +7836,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B157" s="44" t="s">
         <v>349</v>
@@ -7847,7 +7850,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B158" s="44" t="s">
         <v>351</v>
@@ -7861,7 +7864,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B159" s="44" t="s">
         <v>352</v>
@@ -7875,7 +7878,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B160" s="44" t="s">
         <v>354</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B161" s="44" t="s">
         <v>356</v>
@@ -7903,7 +7906,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B162" s="44" t="s">
         <v>357</v>
@@ -7917,7 +7920,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B163" s="44" t="s">
         <v>359</v>
@@ -7931,7 +7934,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B164" s="44" t="s">
         <v>360</v>
@@ -7945,7 +7948,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B165" s="44" t="s">
         <v>362</v>
@@ -7959,7 +7962,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B166" s="44" t="s">
         <v>364</v>
@@ -7973,7 +7976,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B167" s="44" t="s">
         <v>365</v>
@@ -7987,7 +7990,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B168" s="44" t="s">
         <v>367</v>
@@ -8001,7 +8004,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B169" s="44" t="s">
         <v>368</v>
@@ -8015,7 +8018,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B170" s="44" t="s">
         <v>370</v>
@@ -8029,7 +8032,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B171" s="44" t="s">
         <v>371</v>
@@ -8043,7 +8046,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B172" s="44" t="s">
         <v>372</v>
@@ -8057,7 +8060,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B173" s="44" t="s">
         <v>373</v>
@@ -8071,7 +8074,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B174" s="44" t="s">
         <v>375</v>
@@ -8085,7 +8088,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B175" s="44" t="s">
         <v>376</v>
@@ -8099,7 +8102,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B176" s="44" t="s">
         <v>378</v>
@@ -8113,7 +8116,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B177" s="44" t="s">
         <v>379</v>
@@ -8127,7 +8130,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B178" s="44" t="s">
         <v>381</v>
@@ -8141,7 +8144,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B179" s="44" t="s">
         <v>383</v>
@@ -8155,7 +8158,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B180" s="46" t="s">
         <v>385</v>
@@ -8169,7 +8172,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B181" s="44" t="s">
         <v>386</v>
@@ -8183,7 +8186,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B182" s="44" t="s">
         <v>388</v>
@@ -8197,7 +8200,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B183" s="44" t="s">
         <v>389</v>
@@ -8211,7 +8214,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B184" s="44" t="s">
         <v>391</v>
@@ -8225,7 +8228,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B185" s="44" t="s">
         <v>393</v>
@@ -8239,7 +8242,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B186" s="44" t="s">
         <v>395</v>
@@ -8253,7 +8256,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B187" s="44" t="s">
         <v>396</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B188" s="44" t="s">
         <v>398</v>
@@ -8281,7 +8284,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B189" s="44" t="s">
         <v>400</v>
@@ -8295,7 +8298,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B190" s="44" t="s">
         <v>401</v>
@@ -8309,7 +8312,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B191" s="44" t="s">
         <v>403</v>
@@ -8323,7 +8326,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B192" s="44" t="s">
         <v>405</v>
@@ -8337,7 +8340,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B193" s="44" t="s">
         <v>407</v>
@@ -8351,7 +8354,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B194" s="44" t="s">
         <v>408</v>
@@ -8365,7 +8368,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B195" s="44" t="s">
         <v>410</v>
@@ -8379,7 +8382,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B196" s="44" t="s">
         <v>412</v>
@@ -8393,7 +8396,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B197" s="44" t="s">
         <v>414</v>
@@ -8407,7 +8410,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B198" s="44" t="s">
         <v>416</v>
@@ -8421,7 +8424,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B199" s="44" t="s">
         <v>418</v>
@@ -8435,7 +8438,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B200" s="44" t="s">
         <v>419</v>
@@ -8449,7 +8452,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B201" s="44" t="s">
         <v>421</v>
@@ -8463,7 +8466,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B202" s="44" t="s">
         <v>422</v>
@@ -8477,7 +8480,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B203" s="44" t="s">
         <v>424</v>
@@ -8491,7 +8494,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B204" s="44" t="s">
         <v>426</v>
@@ -8505,7 +8508,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B205" s="44" t="s">
         <v>428</v>
@@ -8519,7 +8522,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B206" s="44" t="s">
         <v>429</v>
@@ -8533,7 +8536,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B207" s="44" t="s">
         <v>431</v>
@@ -8547,7 +8550,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B208" s="44" t="s">
         <v>432</v>
@@ -8561,7 +8564,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B209" s="44" t="s">
         <v>434</v>
@@ -8575,7 +8578,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B210" s="44" t="s">
         <v>436</v>
@@ -8589,7 +8592,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B211" s="44" t="s">
         <v>438</v>
@@ -8603,7 +8606,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B212" s="44" t="s">
         <v>440</v>
@@ -8617,7 +8620,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B213" s="44" t="s">
         <v>442</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B214" s="44" t="s">
         <v>444</v>
@@ -8645,7 +8648,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B215" s="44" t="s">
         <v>446</v>
@@ -8659,7 +8662,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B216" s="44" t="s">
         <v>448</v>
@@ -8673,7 +8676,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B217" s="44" t="s">
         <v>449</v>
@@ -8687,7 +8690,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B218" s="44" t="s">
         <v>451</v>
@@ -8701,7 +8704,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B219" s="44" t="s">
         <v>453</v>
@@ -8715,7 +8718,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B220" s="44" t="s">
         <v>455</v>
@@ -8729,7 +8732,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B221" s="44" t="s">
         <v>457</v>
@@ -8743,7 +8746,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B222" s="44" t="s">
         <v>458</v>
@@ -8757,7 +8760,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B223" s="44" t="s">
         <v>460</v>
@@ -8771,7 +8774,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B224" s="44" t="s">
         <v>462</v>
@@ -8785,7 +8788,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B225" s="44" t="s">
         <v>463</v>
@@ -8799,7 +8802,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B226" s="44" t="s">
         <v>465</v>
@@ -8813,7 +8816,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B227" s="46" t="s">
         <v>467</v>
@@ -8827,7 +8830,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B228" s="46" t="s">
         <v>469</v>
@@ -8841,7 +8844,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B229" s="44" t="s">
         <v>471</v>
@@ -8855,7 +8858,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B230" s="44" t="s">
         <v>473</v>
@@ -8869,7 +8872,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B231" s="44" t="s">
         <v>474</v>
@@ -8883,7 +8886,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B232" s="44" t="s">
         <v>476</v>
@@ -8897,7 +8900,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B233" s="44" t="s">
         <v>477</v>
@@ -8911,7 +8914,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B234" s="44" t="s">
         <v>479</v>
@@ -8925,7 +8928,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B235" s="44" t="s">
         <v>481</v>
@@ -8939,7 +8942,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B236" s="44" t="s">
         <v>483</v>
@@ -8953,7 +8956,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B237" s="44" t="s">
         <v>485</v>
@@ -8967,7 +8970,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B238" s="44" t="s">
         <v>487</v>
@@ -8981,7 +8984,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B239" s="44" t="s">
         <v>488</v>
@@ -8995,7 +8998,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B240" s="44" t="s">
         <v>490</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B241" s="44" t="s">
         <v>492</v>
@@ -9023,7 +9026,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B242" s="44" t="s">
         <v>494</v>
@@ -9037,7 +9040,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B243" s="44" t="s">
         <v>496</v>
@@ -9051,7 +9054,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B244" s="44" t="s">
         <v>498</v>
@@ -9065,7 +9068,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B245" s="44" t="s">
         <v>499</v>
@@ -9079,7 +9082,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B246" s="44" t="s">
         <v>501</v>
@@ -9093,7 +9096,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B247" s="44" t="s">
         <v>503</v>
@@ -9107,7 +9110,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B248" s="44" t="s">
         <v>505</v>
@@ -9121,7 +9124,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B249" s="44" t="s">
         <v>506</v>
@@ -9135,7 +9138,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B250" s="44" t="s">
         <v>508</v>
@@ -9149,7 +9152,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B251" s="44" t="s">
         <v>509</v>
@@ -9163,7 +9166,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B252" s="44" t="s">
         <v>511</v>
@@ -9177,7 +9180,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B253" s="44" t="s">
         <v>513</v>
@@ -9191,7 +9194,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B254" s="44" t="s">
         <v>514</v>
@@ -9205,7 +9208,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B255" s="44" t="s">
         <v>516</v>
@@ -9219,7 +9222,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B256" s="44" t="s">
         <v>518</v>
@@ -9233,7 +9236,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B257" s="44" t="s">
         <v>520</v>
@@ -9247,7 +9250,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B258" s="44" t="s">
         <v>521</v>
@@ -9261,7 +9264,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B259" s="44" t="s">
         <v>523</v>
@@ -9275,7 +9278,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B260" s="44" t="s">
         <v>525</v>
@@ -9289,7 +9292,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B261" s="44" t="s">
         <v>527</v>
@@ -9303,7 +9306,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B262" s="44" t="s">
         <v>528</v>
@@ -9317,7 +9320,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B263" s="44" t="s">
         <v>530</v>
@@ -9331,7 +9334,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B264" s="44" t="s">
         <v>531</v>
@@ -9345,7 +9348,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B265" s="44" t="s">
         <v>533</v>
@@ -9359,7 +9362,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B266" s="44" t="s">
         <v>535</v>
@@ -9373,7 +9376,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B267" s="44" t="s">
         <v>537</v>
@@ -9387,7 +9390,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B268" s="44" t="s">
         <v>539</v>
@@ -9401,7 +9404,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B269" s="44" t="s">
         <v>541</v>
@@ -9415,7 +9418,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B270" s="44" t="s">
         <v>543</v>
@@ -9429,7 +9432,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B271" s="44" t="s">
         <v>545</v>
@@ -9443,7 +9446,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B272" s="44" t="s">
         <v>547</v>
@@ -9457,7 +9460,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B273" s="44" t="s">
         <v>549</v>
@@ -9471,7 +9474,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B274" s="44" t="s">
         <v>551</v>
@@ -9485,7 +9488,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B275" s="44" t="s">
         <v>553</v>
@@ -9499,7 +9502,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B276" s="44" t="s">
         <v>555</v>
@@ -9513,7 +9516,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B277" s="44" t="s">
         <v>557</v>
@@ -9527,7 +9530,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B278" s="44" t="s">
         <v>559</v>
@@ -9541,7 +9544,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B279" s="44" t="s">
         <v>561</v>
@@ -9555,7 +9558,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B280" s="44" t="s">
         <v>562</v>
@@ -9569,7 +9572,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B281" s="44" t="s">
         <v>564</v>
@@ -9583,7 +9586,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B282" s="44" t="s">
         <v>566</v>
@@ -9597,7 +9600,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B283" s="44" t="s">
         <v>567</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B284" s="44" t="s">
         <v>569</v>
@@ -9625,7 +9628,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B285" s="44" t="s">
         <v>571</v>
@@ -9639,7 +9642,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B286" s="44" t="s">
         <v>572</v>
@@ -9653,7 +9656,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B287" s="44" t="s">
         <v>574</v>
@@ -9667,7 +9670,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B288" s="44" t="s">
         <v>576</v>
@@ -9681,7 +9684,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B289" s="44" t="s">
         <v>577</v>
@@ -9695,7 +9698,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B290" s="44" t="s">
         <v>579</v>
@@ -9709,7 +9712,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B291" s="44" t="s">
         <v>581</v>
@@ -9723,7 +9726,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B292" s="44" t="s">
         <v>582</v>
@@ -9737,7 +9740,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B293" s="44" t="s">
         <v>584</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B294" s="44" t="s">
         <v>585</v>
@@ -9765,7 +9768,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B295" s="44" t="s">
         <v>587</v>
@@ -9779,7 +9782,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B296" s="44" t="s">
         <v>589</v>
@@ -9793,7 +9796,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B297" s="44" t="s">
         <v>591</v>
@@ -9807,7 +9810,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B298" s="44" t="s">
         <v>593</v>
@@ -9821,7 +9824,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B299" s="44" t="s">
         <v>595</v>
@@ -9835,7 +9838,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B300" s="44" t="s">
         <v>597</v>
@@ -9849,7 +9852,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B301" s="44" t="s">
         <v>598</v>
@@ -9863,7 +9866,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B302" s="44" t="s">
         <v>600</v>
@@ -9877,7 +9880,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B303" s="44" t="s">
         <v>602</v>
@@ -9891,7 +9894,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B304" s="44" t="s">
         <v>603</v>
@@ -9905,7 +9908,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B305" s="44" t="s">
         <v>605</v>
@@ -9919,7 +9922,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B306" s="44" t="s">
         <v>607</v>
@@ -9933,7 +9936,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B307" s="44" t="s">
         <v>609</v>
@@ -9947,7 +9950,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B308" s="44" t="s">
         <v>611</v>
@@ -9961,7 +9964,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B309" s="44" t="s">
         <v>612</v>
@@ -9975,7 +9978,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B310" s="44" t="s">
         <v>614</v>
@@ -9989,7 +9992,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B311" s="44" t="s">
         <v>616</v>
@@ -10003,7 +10006,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B312" s="44" t="s">
         <v>618</v>
@@ -10017,7 +10020,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B313" s="44" t="s">
         <v>620</v>
@@ -10031,7 +10034,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B314" s="44" t="s">
         <v>622</v>
@@ -10045,7 +10048,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B315" s="44" t="s">
         <v>624</v>
@@ -10059,7 +10062,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B316" s="44" t="s">
         <v>626</v>
@@ -10073,7 +10076,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B317" s="44" t="s">
         <v>628</v>
@@ -10087,7 +10090,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B318" s="44" t="s">
         <v>629</v>
@@ -10101,7 +10104,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B319" s="44" t="s">
         <v>631</v>
@@ -10115,7 +10118,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B320" s="44" t="s">
         <v>633</v>
@@ -10129,7 +10132,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B321" s="44" t="s">
         <v>635</v>
@@ -10143,7 +10146,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B322" s="44" t="s">
         <v>637</v>
@@ -10157,7 +10160,7 @@
     </row>
     <row r="323" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B323" s="47" t="s">
         <v>639</v>
@@ -10173,7 +10176,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B324" s="44" t="s">
         <v>641</v>
@@ -10187,7 +10190,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B325" s="44" t="s">
         <v>643</v>
@@ -10201,7 +10204,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B326" s="44" t="s">
         <v>644</v>
@@ -10215,7 +10218,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B327" s="44" t="s">
         <v>646</v>
@@ -10229,7 +10232,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B328" s="44" t="s">
         <v>648</v>
@@ -10243,7 +10246,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B329" s="44" t="s">
         <v>650</v>
@@ -10257,7 +10260,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B330" s="44" t="s">
         <v>652</v>
@@ -10271,7 +10274,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B331" s="44" t="s">
         <v>654</v>
@@ -10285,7 +10288,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B332" s="44" t="s">
         <v>655</v>
@@ -10299,7 +10302,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B333" s="44" t="s">
         <v>657</v>
@@ -10313,7 +10316,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B334" s="44" t="s">
         <v>658</v>
@@ -10327,7 +10330,7 @@
     </row>
     <row r="335" spans="1:6" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B335" s="47" t="s">
         <v>660</v>
@@ -10343,7 +10346,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B336" s="44" t="s">
         <v>662</v>
@@ -10357,7 +10360,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B337" s="44" t="s">
         <v>664</v>
@@ -10371,7 +10374,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B338" s="44" t="s">
         <v>665</v>
@@ -10385,7 +10388,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B339" s="44" t="s">
         <v>667</v>
@@ -10399,7 +10402,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B340" s="44" t="s">
         <v>669</v>
@@ -10413,7 +10416,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B341" s="44" t="s">
         <v>671</v>
@@ -10427,7 +10430,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B342" s="44" t="s">
         <v>672</v>
@@ -10441,7 +10444,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B343" s="44" t="s">
         <v>674</v>
@@ -10455,7 +10458,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B344" s="44" t="s">
         <v>675</v>
@@ -10469,7 +10472,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B345" s="44" t="s">
         <v>677</v>
@@ -10483,7 +10486,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B346" s="44" t="s">
         <v>679</v>
@@ -10497,7 +10500,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B347" s="44" t="s">
         <v>681</v>
@@ -10511,7 +10514,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B348" s="44" t="s">
         <v>683</v>
@@ -10525,7 +10528,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B349" s="44" t="s">
         <v>685</v>
@@ -10539,7 +10542,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B350" s="44" t="s">
         <v>687</v>
@@ -10553,7 +10556,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B351" s="44" t="s">
         <v>689</v>
@@ -10567,7 +10570,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B352" s="44" t="s">
         <v>691</v>
@@ -10581,7 +10584,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B353" s="44" t="s">
         <v>693</v>
@@ -10595,7 +10598,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B354" s="44" t="s">
         <v>695</v>
@@ -10609,7 +10612,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B355" s="44" t="s">
         <v>696</v>
@@ -10623,7 +10626,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B356" s="44" t="s">
         <v>698</v>
@@ -10637,7 +10640,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B357" s="44" t="s">
         <v>700</v>
@@ -10651,7 +10654,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B358" s="44" t="s">
         <v>702</v>
@@ -10665,7 +10668,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B359" s="44" t="s">
         <v>704</v>
@@ -10679,7 +10682,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B360" s="44" t="s">
         <v>706</v>
@@ -10693,7 +10696,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B361" s="44" t="s">
         <v>708</v>
@@ -10707,7 +10710,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B362" s="44" t="s">
         <v>710</v>
@@ -10721,7 +10724,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B363" s="44" t="s">
         <v>712</v>
@@ -10735,7 +10738,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B364" s="44" t="s">
         <v>714</v>
@@ -10749,7 +10752,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B365" s="44" t="s">
         <v>716</v>
@@ -10763,7 +10766,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B366" s="44" t="s">
         <v>718</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B367" s="44" t="s">
         <v>720</v>
@@ -10791,7 +10794,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B368" s="44" t="s">
         <v>722</v>
@@ -10805,7 +10808,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B369" s="44" t="s">
         <v>723</v>
@@ -10819,7 +10822,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B370" s="44" t="s">
         <v>725</v>
@@ -10833,7 +10836,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B371" s="44" t="s">
         <v>727</v>
@@ -10847,7 +10850,7 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B372" s="44" t="s">
         <v>729</v>
@@ -10861,7 +10864,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B373" s="44" t="s">
         <v>731</v>
@@ -10875,7 +10878,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B374" s="44" t="s">
         <v>733</v>
@@ -10889,7 +10892,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B375" s="44" t="s">
         <v>735</v>
@@ -10903,7 +10906,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B376" s="44" t="s">
         <v>737</v>
@@ -10917,7 +10920,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B377" s="44" t="s">
         <v>738</v>
@@ -10931,7 +10934,7 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B378" s="44" t="s">
         <v>739</v>
@@ -10945,7 +10948,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B379" s="44" t="s">
         <v>741</v>
@@ -10959,7 +10962,7 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B380" s="44" t="s">
         <v>743</v>
@@ -10973,7 +10976,7 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B381" s="44" t="s">
         <v>745</v>
@@ -10987,7 +10990,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B382" s="44" t="s">
         <v>747</v>
@@ -11001,7 +11004,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B383" s="44" t="s">
         <v>749</v>
@@ -11015,7 +11018,7 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B384" s="44" t="s">
         <v>750</v>
@@ -11029,7 +11032,7 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B385" s="44" t="s">
         <v>752</v>
@@ -11043,7 +11046,7 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B386" s="44" t="s">
         <v>754</v>
@@ -11057,7 +11060,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B387" s="44" t="s">
         <v>756</v>
@@ -11071,7 +11074,7 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B388" s="44" t="s">
         <v>758</v>
@@ -11085,7 +11088,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B389" s="44" t="s">
         <v>760</v>
@@ -11099,7 +11102,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B390" s="44" t="s">
         <v>762</v>
@@ -11113,7 +11116,7 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B391" s="44" t="s">
         <v>763</v>
@@ -11127,7 +11130,7 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B392" s="44" t="s">
         <v>765</v>
@@ -11141,7 +11144,7 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B393" s="44" t="s">
         <v>767</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B394" s="44" t="s">
         <v>769</v>
@@ -11169,7 +11172,7 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B395" s="44" t="s">
         <v>771</v>
@@ -11183,7 +11186,7 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B396" s="44" t="s">
         <v>772</v>
@@ -11197,7 +11200,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B397" s="44" t="s">
         <v>774</v>
@@ -11211,7 +11214,7 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B398" s="44" t="s">
         <v>775</v>
@@ -11225,7 +11228,7 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B399" s="44" t="s">
         <v>777</v>
@@ -11239,7 +11242,7 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B400" s="44" t="s">
         <v>779</v>
@@ -11253,7 +11256,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B401" s="44" t="s">
         <v>781</v>
@@ -11267,7 +11270,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B402" s="44" t="s">
         <v>783</v>
@@ -11281,7 +11284,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B403" s="44" t="s">
         <v>785</v>
@@ -11295,7 +11298,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B404" s="44" t="s">
         <v>787</v>
@@ -11309,7 +11312,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B405" s="44" t="s">
         <v>789</v>
@@ -11323,7 +11326,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B406" s="44" t="s">
         <v>791</v>
@@ -11337,7 +11340,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B407" s="44" t="s">
         <v>792</v>
@@ -11351,7 +11354,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B408" s="44" t="s">
         <v>793</v>
@@ -11365,7 +11368,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B409" s="44" t="s">
         <v>795</v>
@@ -11379,7 +11382,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B410" s="44" t="s">
         <v>797</v>
@@ -11393,7 +11396,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B411" s="44" t="s">
         <v>799</v>
@@ -11407,7 +11410,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B412" s="44" t="s">
         <v>801</v>
@@ -11421,7 +11424,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B413" s="44" t="s">
         <v>803</v>
@@ -11435,7 +11438,7 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B414" s="44" t="s">
         <v>805</v>
@@ -11449,7 +11452,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B415" s="44" t="s">
         <v>806</v>
@@ -11463,7 +11466,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B416" s="44" t="s">
         <v>808</v>
@@ -11477,7 +11480,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B417" s="44" t="s">
         <v>810</v>
@@ -11491,7 +11494,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B418" s="44" t="s">
         <v>811</v>
@@ -11505,7 +11508,7 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B419" s="44" t="s">
         <v>813</v>
@@ -11519,7 +11522,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B420" s="44" t="s">
         <v>815</v>
@@ -11533,7 +11536,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B421" s="44" t="s">
         <v>816</v>
@@ -11547,7 +11550,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B422" s="44" t="s">
         <v>818</v>
@@ -11561,7 +11564,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B423" s="44" t="s">
         <v>820</v>
@@ -11575,7 +11578,7 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B424" s="44" t="s">
         <v>822</v>
@@ -11589,7 +11592,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B425" s="44" t="s">
         <v>824</v>
@@ -11603,7 +11606,7 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B426" s="44" t="s">
         <v>825</v>
@@ -11617,7 +11620,7 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B427" s="44" t="s">
         <v>827</v>
@@ -11631,7 +11634,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B428" s="44" t="s">
         <v>829</v>
@@ -11645,7 +11648,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B429" s="44" t="s">
         <v>831</v>
@@ -11659,7 +11662,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B430" s="44" t="s">
         <v>832</v>
@@ -11673,7 +11676,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B431" s="44" t="s">
         <v>834</v>
@@ -11687,7 +11690,7 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B432" s="44" t="s">
         <v>835</v>
@@ -11701,7 +11704,7 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B433" s="44" t="s">
         <v>836</v>
@@ -11715,7 +11718,7 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B434" s="44" t="s">
         <v>838</v>
@@ -11729,7 +11732,7 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B435" s="44" t="s">
         <v>839</v>
@@ -11743,7 +11746,7 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B436" s="44" t="s">
         <v>841</v>
@@ -11757,7 +11760,7 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B437" s="44" t="s">
         <v>843</v>
@@ -11771,7 +11774,7 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B438" s="44" t="s">
         <v>844</v>
@@ -11785,7 +11788,7 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B439" s="44" t="s">
         <v>846</v>
@@ -11799,7 +11802,7 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B440" s="44" t="s">
         <v>847</v>
@@ -11813,7 +11816,7 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B441" s="44" t="s">
         <v>849</v>
@@ -11827,7 +11830,7 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B442" s="44" t="s">
         <v>850</v>
@@ -11841,7 +11844,7 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B443" s="44" t="s">
         <v>852</v>
@@ -11855,7 +11858,7 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B444" s="44" t="s">
         <v>853</v>
@@ -11869,7 +11872,7 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B445" s="44" t="s">
         <v>855</v>
@@ -11883,7 +11886,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B446" s="44" t="s">
         <v>857</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B447" s="44" t="s">
         <v>858</v>
@@ -11911,7 +11914,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B448" s="44" t="s">
         <v>859</v>
@@ -11925,7 +11928,7 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B449" s="44" t="s">
         <v>861</v>
@@ -11939,7 +11942,7 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B450" s="44" t="s">
         <v>862</v>
@@ -11953,7 +11956,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B451" s="44" t="s">
         <v>864</v>
@@ -11967,7 +11970,7 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B452" s="44" t="s">
         <v>865</v>
@@ -11981,7 +11984,7 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B453" s="44" t="s">
         <v>867</v>
@@ -11995,7 +11998,7 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B454" s="44" t="s">
         <v>868</v>
@@ -12009,7 +12012,7 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B455" s="44" t="s">
         <v>870</v>
@@ -12023,7 +12026,7 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B456" s="44" t="s">
         <v>871</v>
@@ -12037,7 +12040,7 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B457" s="44" t="s">
         <v>873</v>
@@ -12051,7 +12054,7 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B458" s="44" t="s">
         <v>875</v>
@@ -12065,7 +12068,7 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B459" s="44" t="s">
         <v>876</v>
@@ -12079,7 +12082,7 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B460" s="44" t="s">
         <v>878</v>
@@ -12093,7 +12096,7 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B461" s="44" t="s">
         <v>879</v>
@@ -12107,7 +12110,7 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B462" s="44" t="s">
         <v>881</v>
@@ -12121,7 +12124,7 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B463" s="44" t="s">
         <v>882</v>
@@ -12135,7 +12138,7 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B464" s="44" t="s">
         <v>884</v>
@@ -12149,7 +12152,7 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B465" s="44" t="s">
         <v>886</v>
@@ -12163,7 +12166,7 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B466" s="44" t="s">
         <v>887</v>
@@ -12177,7 +12180,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B467" s="44" t="s">
         <v>889</v>
@@ -12191,7 +12194,7 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B468" s="44" t="s">
         <v>891</v>
@@ -12205,7 +12208,7 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B469" s="44" t="s">
         <v>893</v>
@@ -12219,7 +12222,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B470" s="44" t="s">
         <v>895</v>
@@ -12233,7 +12236,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B471" s="44" t="s">
         <v>897</v>
@@ -12247,7 +12250,7 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B472" s="44" t="s">
         <v>899</v>
@@ -12261,7 +12264,7 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B473" s="44" t="s">
         <v>901</v>
@@ -12275,7 +12278,7 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B474" s="44" t="s">
         <v>903</v>
@@ -12289,7 +12292,7 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B475" s="44" t="s">
         <v>905</v>
@@ -12303,7 +12306,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B476" s="44" t="s">
         <v>907</v>
@@ -12317,7 +12320,7 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B477" s="44" t="s">
         <v>909</v>
@@ -12331,7 +12334,7 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B478" s="44" t="s">
         <v>911</v>
@@ -12345,7 +12348,7 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B479" s="44" t="s">
         <v>913</v>
@@ -12359,7 +12362,7 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B480" s="44" t="s">
         <v>915</v>
@@ -12373,7 +12376,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B481" s="44" t="s">
         <v>916</v>
@@ -12387,7 +12390,7 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B482" s="44" t="s">
         <v>918</v>
@@ -12401,7 +12404,7 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B483" s="44" t="s">
         <v>920</v>
@@ -12415,7 +12418,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B484" s="44" t="s">
         <v>921</v>
@@ -12429,7 +12432,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B485" s="44" t="s">
         <v>923</v>
@@ -12443,7 +12446,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B486" s="44" t="s">
         <v>925</v>
@@ -12457,7 +12460,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B487" s="44" t="s">
         <v>927</v>
@@ -12471,7 +12474,7 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B488" s="44" t="s">
         <v>929</v>
@@ -12485,7 +12488,7 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B489" s="44" t="s">
         <v>931</v>
@@ -12499,7 +12502,7 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B490" s="44" t="s">
         <v>933</v>
@@ -12513,7 +12516,7 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B491" s="44" t="s">
         <v>935</v>
@@ -12527,7 +12530,7 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B492" s="44" t="s">
         <v>937</v>
@@ -12541,7 +12544,7 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B493" s="44" t="s">
         <v>938</v>
@@ -12555,7 +12558,7 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B494" s="44" t="s">
         <v>940</v>
@@ -12569,7 +12572,7 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B495" s="44" t="s">
         <v>942</v>
@@ -12583,7 +12586,7 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B496" s="44" t="s">
         <v>944</v>
@@ -12597,7 +12600,7 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B497" s="44" t="s">
         <v>946</v>
@@ -12611,7 +12614,7 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B498" s="44" t="s">
         <v>948</v>
@@ -12625,7 +12628,7 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B499" s="44" t="s">
         <v>950</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B500" s="44" t="s">
         <v>952</v>
@@ -12653,7 +12656,7 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B501" s="44" t="s">
         <v>954</v>
@@ -12667,7 +12670,7 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B502" s="44" t="s">
         <v>956</v>
@@ -12681,7 +12684,7 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B503" s="44" t="s">
         <v>957</v>
@@ -12695,7 +12698,7 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B504" s="44" t="s">
         <v>959</v>
@@ -12709,7 +12712,7 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B505" s="44" t="s">
         <v>960</v>
@@ -12723,7 +12726,7 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B506" s="44" t="s">
         <v>962</v>
@@ -12737,7 +12740,7 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B507" s="44" t="s">
         <v>964</v>
@@ -12751,7 +12754,7 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B508" s="44" t="s">
         <v>966</v>
@@ -12765,7 +12768,7 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B509" s="44" t="s">
         <v>968</v>
@@ -12779,7 +12782,7 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B510" s="44" t="s">
         <v>970</v>
@@ -12793,7 +12796,7 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B511" s="44" t="s">
         <v>971</v>
@@ -12807,7 +12810,7 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B512" s="44" t="s">
         <v>973</v>
@@ -12821,7 +12824,7 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B513" s="44" t="s">
         <v>974</v>
@@ -12835,7 +12838,7 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B514" s="44" t="s">
         <v>976</v>
@@ -12849,7 +12852,7 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B515" s="44" t="s">
         <v>978</v>
@@ -12863,7 +12866,7 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B516" s="44" t="s">
         <v>980</v>
@@ -12877,7 +12880,7 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B517" s="44" t="s">
         <v>982</v>
@@ -12891,7 +12894,7 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B518" s="44" t="s">
         <v>983</v>
@@ -12905,7 +12908,7 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B519" s="44" t="s">
         <v>985</v>
@@ -12919,7 +12922,7 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B520" s="44" t="s">
         <v>987</v>
@@ -12933,7 +12936,7 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B521" s="44" t="s">
         <v>989</v>
@@ -12947,7 +12950,7 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B522" s="44" t="s">
         <v>991</v>
@@ -12961,7 +12964,7 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B523" s="44" t="s">
         <v>993</v>
@@ -12975,7 +12978,7 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B524" s="44" t="s">
         <v>994</v>
@@ -12989,7 +12992,7 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B525" s="44" t="s">
         <v>996</v>
@@ -13003,7 +13006,7 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B526" s="44" t="s">
         <v>998</v>
@@ -13017,7 +13020,7 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B527" s="44" t="s">
         <v>1000</v>
@@ -13031,7 +13034,7 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B528" s="44" t="s">
         <v>1002</v>
@@ -13045,7 +13048,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B529" s="44" t="s">
         <v>1004</v>
@@ -13059,7 +13062,7 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B530" s="44" t="s">
         <v>1006</v>
@@ -13073,7 +13076,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B531" s="44" t="s">
         <v>1007</v>
@@ -13087,7 +13090,7 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B532" s="44" t="s">
         <v>1009</v>
@@ -13101,7 +13104,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B533" s="44" t="s">
         <v>1011</v>
@@ -13115,7 +13118,7 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B534" s="44" t="s">
         <v>1013</v>
@@ -13129,7 +13132,7 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="61" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B535" s="44" t="s">
         <v>1014</v>
@@ -13148,13 +13151,13 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="61" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B537" s="62" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C537" s="58" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="D537" s="62"/>
       <c r="E537" s="62"/>
@@ -13164,13 +13167,13 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="61" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B538" s="62" t="s">
         <v>1086</v>
       </c>
-      <c r="B538" s="62" t="s">
-        <v>1089</v>
-      </c>
       <c r="C538" s="58" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D538" s="62"/>
       <c r="E538" s="62"/>
@@ -13180,13 +13183,13 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="61" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B539" s="62" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C539" s="58" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D539" s="62"/>
       <c r="E539" s="62"/>
@@ -30551,8 +30554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30580,7 +30583,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1040</v>
@@ -30589,7 +30592,7 @@
         <v>201902271</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
   </sheetData>
